--- a/data/BppTrend/2020_Trend_Factors_Calculator.xlsx
+++ b/data/BppTrend/2020_Trend_Factors_Calculator.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/Previously Relocated Items/Security/Projects/SM/BPP Design/Sample File/2020 Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sikbhamb\Project\APAS_Automation\qa_automation\data\BppTrend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{A50CF6B8-C217-8948-9B01-BC78AC58A0CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{75C2EF7A-0F46-44F1-AC3E-29319D2F041E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" tabRatio="870" firstSheet="9" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" tabRatio="870" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Trends Settings " sheetId="21" r:id="rId1"/>
@@ -41,7 +40,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Industrial Composite'!$A$1:$W$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'M&amp;E Property Good Factor'!$A$1:$W$42</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -322,7 +321,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.00000"/>
@@ -883,15 +882,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Comma 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Comma 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Comma 2" xfId="4"/>
+    <cellStyle name="Comma 3" xfId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Percent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="5"/>
+    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 3 2" xfId="6"/>
+    <cellStyle name="Normal 4" xfId="7"/>
+    <cellStyle name="Percent 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -921,4017 +920,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Input"/>
       <sheetName val="ValueTable"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="5">
-          <cell r="A5">
-            <v>1975</v>
-          </cell>
-          <cell r="C5">
-            <v>100000</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>1976</v>
-          </cell>
-          <cell r="B6">
-            <v>1.02</v>
-          </cell>
-          <cell r="C6">
-            <v>0</v>
-          </cell>
-          <cell r="D6">
-            <v>0</v>
-          </cell>
-          <cell r="E6">
-            <v>0</v>
-          </cell>
-          <cell r="F6">
-            <v>0</v>
-          </cell>
-          <cell r="G6">
-            <v>0</v>
-          </cell>
-          <cell r="H6">
-            <v>0</v>
-          </cell>
-          <cell r="I6">
-            <v>0</v>
-          </cell>
-          <cell r="J6">
-            <v>0</v>
-          </cell>
-          <cell r="K6">
-            <v>0</v>
-          </cell>
-          <cell r="L6">
-            <v>0</v>
-          </cell>
-          <cell r="M6">
-            <v>0</v>
-          </cell>
-          <cell r="N6">
-            <v>0</v>
-          </cell>
-          <cell r="O6">
-            <v>0</v>
-          </cell>
-          <cell r="P6">
-            <v>0</v>
-          </cell>
-          <cell r="Q6">
-            <v>0</v>
-          </cell>
-          <cell r="R6">
-            <v>0</v>
-          </cell>
-          <cell r="S6">
-            <v>0</v>
-          </cell>
-          <cell r="T6">
-            <v>0</v>
-          </cell>
-          <cell r="U6">
-            <v>0</v>
-          </cell>
-          <cell r="V6">
-            <v>0</v>
-          </cell>
-          <cell r="W6">
-            <v>0</v>
-          </cell>
-          <cell r="X6">
-            <v>0</v>
-          </cell>
-          <cell r="Y6">
-            <v>0</v>
-          </cell>
-          <cell r="Z6">
-            <v>0</v>
-          </cell>
-          <cell r="AA6">
-            <v>0</v>
-          </cell>
-          <cell r="AB6">
-            <v>0</v>
-          </cell>
-          <cell r="AC6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>1977</v>
-          </cell>
-          <cell r="B7">
-            <v>1.02</v>
-          </cell>
-          <cell r="C7">
-            <v>0</v>
-          </cell>
-          <cell r="D7">
-            <v>0</v>
-          </cell>
-          <cell r="E7">
-            <v>0</v>
-          </cell>
-          <cell r="F7">
-            <v>0</v>
-          </cell>
-          <cell r="G7">
-            <v>0</v>
-          </cell>
-          <cell r="H7">
-            <v>0</v>
-          </cell>
-          <cell r="I7">
-            <v>0</v>
-          </cell>
-          <cell r="J7">
-            <v>0</v>
-          </cell>
-          <cell r="K7">
-            <v>0</v>
-          </cell>
-          <cell r="L7">
-            <v>0</v>
-          </cell>
-          <cell r="M7">
-            <v>0</v>
-          </cell>
-          <cell r="N7">
-            <v>0</v>
-          </cell>
-          <cell r="O7">
-            <v>0</v>
-          </cell>
-          <cell r="P7">
-            <v>0</v>
-          </cell>
-          <cell r="Q7">
-            <v>0</v>
-          </cell>
-          <cell r="R7">
-            <v>0</v>
-          </cell>
-          <cell r="S7">
-            <v>0</v>
-          </cell>
-          <cell r="T7">
-            <v>0</v>
-          </cell>
-          <cell r="U7">
-            <v>0</v>
-          </cell>
-          <cell r="V7">
-            <v>0</v>
-          </cell>
-          <cell r="W7">
-            <v>0</v>
-          </cell>
-          <cell r="X7">
-            <v>0</v>
-          </cell>
-          <cell r="Y7">
-            <v>0</v>
-          </cell>
-          <cell r="Z7">
-            <v>0</v>
-          </cell>
-          <cell r="AA7">
-            <v>0</v>
-          </cell>
-          <cell r="AB7">
-            <v>0</v>
-          </cell>
-          <cell r="AC7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>1978</v>
-          </cell>
-          <cell r="B8">
-            <v>1.02</v>
-          </cell>
-          <cell r="C8">
-            <v>0</v>
-          </cell>
-          <cell r="D8">
-            <v>0</v>
-          </cell>
-          <cell r="E8">
-            <v>0</v>
-          </cell>
-          <cell r="F8">
-            <v>0</v>
-          </cell>
-          <cell r="G8">
-            <v>0</v>
-          </cell>
-          <cell r="H8">
-            <v>0</v>
-          </cell>
-          <cell r="I8">
-            <v>0</v>
-          </cell>
-          <cell r="J8">
-            <v>0</v>
-          </cell>
-          <cell r="K8">
-            <v>0</v>
-          </cell>
-          <cell r="L8">
-            <v>0</v>
-          </cell>
-          <cell r="M8">
-            <v>0</v>
-          </cell>
-          <cell r="N8">
-            <v>0</v>
-          </cell>
-          <cell r="O8">
-            <v>0</v>
-          </cell>
-          <cell r="P8">
-            <v>0</v>
-          </cell>
-          <cell r="Q8">
-            <v>0</v>
-          </cell>
-          <cell r="R8">
-            <v>0</v>
-          </cell>
-          <cell r="S8">
-            <v>0</v>
-          </cell>
-          <cell r="T8">
-            <v>0</v>
-          </cell>
-          <cell r="U8">
-            <v>0</v>
-          </cell>
-          <cell r="V8">
-            <v>0</v>
-          </cell>
-          <cell r="W8">
-            <v>0</v>
-          </cell>
-          <cell r="X8">
-            <v>0</v>
-          </cell>
-          <cell r="Y8">
-            <v>0</v>
-          </cell>
-          <cell r="Z8">
-            <v>0</v>
-          </cell>
-          <cell r="AA8">
-            <v>0</v>
-          </cell>
-          <cell r="AB8">
-            <v>0</v>
-          </cell>
-          <cell r="AC8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>1979</v>
-          </cell>
-          <cell r="B9">
-            <v>1.02</v>
-          </cell>
-          <cell r="C9">
-            <v>0</v>
-          </cell>
-          <cell r="D9">
-            <v>0</v>
-          </cell>
-          <cell r="E9">
-            <v>0</v>
-          </cell>
-          <cell r="F9">
-            <v>0</v>
-          </cell>
-          <cell r="G9">
-            <v>0</v>
-          </cell>
-          <cell r="H9">
-            <v>0</v>
-          </cell>
-          <cell r="I9">
-            <v>0</v>
-          </cell>
-          <cell r="J9">
-            <v>0</v>
-          </cell>
-          <cell r="K9">
-            <v>0</v>
-          </cell>
-          <cell r="L9">
-            <v>0</v>
-          </cell>
-          <cell r="M9">
-            <v>0</v>
-          </cell>
-          <cell r="N9">
-            <v>0</v>
-          </cell>
-          <cell r="O9">
-            <v>0</v>
-          </cell>
-          <cell r="P9">
-            <v>0</v>
-          </cell>
-          <cell r="Q9">
-            <v>0</v>
-          </cell>
-          <cell r="R9">
-            <v>0</v>
-          </cell>
-          <cell r="S9">
-            <v>0</v>
-          </cell>
-          <cell r="T9">
-            <v>0</v>
-          </cell>
-          <cell r="U9">
-            <v>0</v>
-          </cell>
-          <cell r="V9">
-            <v>0</v>
-          </cell>
-          <cell r="W9">
-            <v>0</v>
-          </cell>
-          <cell r="X9">
-            <v>0</v>
-          </cell>
-          <cell r="Y9">
-            <v>0</v>
-          </cell>
-          <cell r="Z9">
-            <v>0</v>
-          </cell>
-          <cell r="AA9">
-            <v>0</v>
-          </cell>
-          <cell r="AB9">
-            <v>0</v>
-          </cell>
-          <cell r="AC9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>1980</v>
-          </cell>
-          <cell r="B10">
-            <v>1.02</v>
-          </cell>
-          <cell r="C10">
-            <v>0</v>
-          </cell>
-          <cell r="D10">
-            <v>0</v>
-          </cell>
-          <cell r="E10">
-            <v>0</v>
-          </cell>
-          <cell r="F10">
-            <v>0</v>
-          </cell>
-          <cell r="G10">
-            <v>0</v>
-          </cell>
-          <cell r="H10">
-            <v>0</v>
-          </cell>
-          <cell r="I10">
-            <v>0</v>
-          </cell>
-          <cell r="J10">
-            <v>0</v>
-          </cell>
-          <cell r="K10">
-            <v>0</v>
-          </cell>
-          <cell r="L10">
-            <v>0</v>
-          </cell>
-          <cell r="M10">
-            <v>0</v>
-          </cell>
-          <cell r="N10">
-            <v>0</v>
-          </cell>
-          <cell r="O10">
-            <v>0</v>
-          </cell>
-          <cell r="P10">
-            <v>0</v>
-          </cell>
-          <cell r="Q10">
-            <v>0</v>
-          </cell>
-          <cell r="R10">
-            <v>0</v>
-          </cell>
-          <cell r="S10">
-            <v>0</v>
-          </cell>
-          <cell r="T10">
-            <v>0</v>
-          </cell>
-          <cell r="U10">
-            <v>0</v>
-          </cell>
-          <cell r="V10">
-            <v>0</v>
-          </cell>
-          <cell r="W10">
-            <v>0</v>
-          </cell>
-          <cell r="X10">
-            <v>0</v>
-          </cell>
-          <cell r="Y10">
-            <v>0</v>
-          </cell>
-          <cell r="Z10">
-            <v>0</v>
-          </cell>
-          <cell r="AA10">
-            <v>0</v>
-          </cell>
-          <cell r="AB10">
-            <v>0</v>
-          </cell>
-          <cell r="AC10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>1981</v>
-          </cell>
-          <cell r="B11">
-            <v>1.02</v>
-          </cell>
-          <cell r="C11">
-            <v>0</v>
-          </cell>
-          <cell r="D11">
-            <v>0</v>
-          </cell>
-          <cell r="E11">
-            <v>0</v>
-          </cell>
-          <cell r="F11">
-            <v>0</v>
-          </cell>
-          <cell r="G11">
-            <v>0</v>
-          </cell>
-          <cell r="H11">
-            <v>0</v>
-          </cell>
-          <cell r="I11">
-            <v>0</v>
-          </cell>
-          <cell r="J11">
-            <v>0</v>
-          </cell>
-          <cell r="K11">
-            <v>0</v>
-          </cell>
-          <cell r="L11">
-            <v>0</v>
-          </cell>
-          <cell r="M11">
-            <v>0</v>
-          </cell>
-          <cell r="N11">
-            <v>0</v>
-          </cell>
-          <cell r="O11">
-            <v>0</v>
-          </cell>
-          <cell r="P11">
-            <v>0</v>
-          </cell>
-          <cell r="Q11">
-            <v>0</v>
-          </cell>
-          <cell r="R11">
-            <v>0</v>
-          </cell>
-          <cell r="S11">
-            <v>0</v>
-          </cell>
-          <cell r="T11">
-            <v>0</v>
-          </cell>
-          <cell r="U11">
-            <v>0</v>
-          </cell>
-          <cell r="V11">
-            <v>0</v>
-          </cell>
-          <cell r="W11">
-            <v>0</v>
-          </cell>
-          <cell r="X11">
-            <v>0</v>
-          </cell>
-          <cell r="Y11">
-            <v>0</v>
-          </cell>
-          <cell r="Z11">
-            <v>0</v>
-          </cell>
-          <cell r="AA11">
-            <v>0</v>
-          </cell>
-          <cell r="AB11">
-            <v>0</v>
-          </cell>
-          <cell r="AC11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>1982</v>
-          </cell>
-          <cell r="B12">
-            <v>1.02</v>
-          </cell>
-          <cell r="C12">
-            <v>0</v>
-          </cell>
-          <cell r="D12">
-            <v>0</v>
-          </cell>
-          <cell r="E12">
-            <v>0</v>
-          </cell>
-          <cell r="F12">
-            <v>0</v>
-          </cell>
-          <cell r="G12">
-            <v>0</v>
-          </cell>
-          <cell r="H12">
-            <v>0</v>
-          </cell>
-          <cell r="I12">
-            <v>0</v>
-          </cell>
-          <cell r="J12">
-            <v>0</v>
-          </cell>
-          <cell r="K12">
-            <v>0</v>
-          </cell>
-          <cell r="L12">
-            <v>0</v>
-          </cell>
-          <cell r="M12">
-            <v>0</v>
-          </cell>
-          <cell r="N12">
-            <v>0</v>
-          </cell>
-          <cell r="O12">
-            <v>0</v>
-          </cell>
-          <cell r="P12">
-            <v>0</v>
-          </cell>
-          <cell r="Q12">
-            <v>0</v>
-          </cell>
-          <cell r="R12">
-            <v>0</v>
-          </cell>
-          <cell r="S12">
-            <v>0</v>
-          </cell>
-          <cell r="T12">
-            <v>0</v>
-          </cell>
-          <cell r="U12">
-            <v>0</v>
-          </cell>
-          <cell r="V12">
-            <v>0</v>
-          </cell>
-          <cell r="W12">
-            <v>0</v>
-          </cell>
-          <cell r="X12">
-            <v>0</v>
-          </cell>
-          <cell r="Y12">
-            <v>0</v>
-          </cell>
-          <cell r="Z12">
-            <v>0</v>
-          </cell>
-          <cell r="AA12">
-            <v>0</v>
-          </cell>
-          <cell r="AB12">
-            <v>0</v>
-          </cell>
-          <cell r="AC12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>1983</v>
-          </cell>
-          <cell r="B13">
-            <v>1.01</v>
-          </cell>
-          <cell r="C13">
-            <v>0</v>
-          </cell>
-          <cell r="D13">
-            <v>0</v>
-          </cell>
-          <cell r="E13">
-            <v>0</v>
-          </cell>
-          <cell r="F13">
-            <v>0</v>
-          </cell>
-          <cell r="G13">
-            <v>0</v>
-          </cell>
-          <cell r="H13">
-            <v>0</v>
-          </cell>
-          <cell r="I13">
-            <v>0</v>
-          </cell>
-          <cell r="J13">
-            <v>0</v>
-          </cell>
-          <cell r="K13">
-            <v>0</v>
-          </cell>
-          <cell r="L13">
-            <v>0</v>
-          </cell>
-          <cell r="M13">
-            <v>0</v>
-          </cell>
-          <cell r="N13">
-            <v>0</v>
-          </cell>
-          <cell r="O13">
-            <v>0</v>
-          </cell>
-          <cell r="P13">
-            <v>0</v>
-          </cell>
-          <cell r="Q13">
-            <v>0</v>
-          </cell>
-          <cell r="R13">
-            <v>0</v>
-          </cell>
-          <cell r="S13">
-            <v>0</v>
-          </cell>
-          <cell r="T13">
-            <v>0</v>
-          </cell>
-          <cell r="U13">
-            <v>0</v>
-          </cell>
-          <cell r="V13">
-            <v>0</v>
-          </cell>
-          <cell r="W13">
-            <v>0</v>
-          </cell>
-          <cell r="X13">
-            <v>0</v>
-          </cell>
-          <cell r="Y13">
-            <v>0</v>
-          </cell>
-          <cell r="Z13">
-            <v>0</v>
-          </cell>
-          <cell r="AA13">
-            <v>0</v>
-          </cell>
-          <cell r="AB13">
-            <v>0</v>
-          </cell>
-          <cell r="AC13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>1984</v>
-          </cell>
-          <cell r="B14">
-            <v>1.02</v>
-          </cell>
-          <cell r="C14">
-            <v>0</v>
-          </cell>
-          <cell r="D14">
-            <v>0</v>
-          </cell>
-          <cell r="E14">
-            <v>0</v>
-          </cell>
-          <cell r="F14">
-            <v>0</v>
-          </cell>
-          <cell r="G14">
-            <v>0</v>
-          </cell>
-          <cell r="H14">
-            <v>0</v>
-          </cell>
-          <cell r="I14">
-            <v>0</v>
-          </cell>
-          <cell r="J14">
-            <v>0</v>
-          </cell>
-          <cell r="K14">
-            <v>0</v>
-          </cell>
-          <cell r="L14">
-            <v>0</v>
-          </cell>
-          <cell r="M14">
-            <v>0</v>
-          </cell>
-          <cell r="N14">
-            <v>0</v>
-          </cell>
-          <cell r="O14">
-            <v>0</v>
-          </cell>
-          <cell r="P14">
-            <v>0</v>
-          </cell>
-          <cell r="Q14">
-            <v>0</v>
-          </cell>
-          <cell r="R14">
-            <v>0</v>
-          </cell>
-          <cell r="S14">
-            <v>0</v>
-          </cell>
-          <cell r="T14">
-            <v>0</v>
-          </cell>
-          <cell r="U14">
-            <v>0</v>
-          </cell>
-          <cell r="V14">
-            <v>0</v>
-          </cell>
-          <cell r="W14">
-            <v>0</v>
-          </cell>
-          <cell r="X14">
-            <v>0</v>
-          </cell>
-          <cell r="Y14">
-            <v>0</v>
-          </cell>
-          <cell r="Z14">
-            <v>0</v>
-          </cell>
-          <cell r="AA14">
-            <v>0</v>
-          </cell>
-          <cell r="AB14">
-            <v>0</v>
-          </cell>
-          <cell r="AC14">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>1985</v>
-          </cell>
-          <cell r="B15">
-            <v>1.02</v>
-          </cell>
-          <cell r="C15">
-            <v>0</v>
-          </cell>
-          <cell r="D15">
-            <v>0</v>
-          </cell>
-          <cell r="E15">
-            <v>0</v>
-          </cell>
-          <cell r="F15">
-            <v>0</v>
-          </cell>
-          <cell r="G15">
-            <v>0</v>
-          </cell>
-          <cell r="H15">
-            <v>0</v>
-          </cell>
-          <cell r="I15">
-            <v>0</v>
-          </cell>
-          <cell r="J15">
-            <v>0</v>
-          </cell>
-          <cell r="K15">
-            <v>0</v>
-          </cell>
-          <cell r="L15">
-            <v>0</v>
-          </cell>
-          <cell r="M15">
-            <v>0</v>
-          </cell>
-          <cell r="N15">
-            <v>0</v>
-          </cell>
-          <cell r="O15">
-            <v>0</v>
-          </cell>
-          <cell r="P15">
-            <v>0</v>
-          </cell>
-          <cell r="Q15">
-            <v>0</v>
-          </cell>
-          <cell r="R15">
-            <v>0</v>
-          </cell>
-          <cell r="S15">
-            <v>0</v>
-          </cell>
-          <cell r="T15">
-            <v>0</v>
-          </cell>
-          <cell r="U15">
-            <v>0</v>
-          </cell>
-          <cell r="V15">
-            <v>0</v>
-          </cell>
-          <cell r="W15">
-            <v>0</v>
-          </cell>
-          <cell r="X15">
-            <v>0</v>
-          </cell>
-          <cell r="Y15">
-            <v>0</v>
-          </cell>
-          <cell r="Z15">
-            <v>0</v>
-          </cell>
-          <cell r="AA15">
-            <v>0</v>
-          </cell>
-          <cell r="AB15">
-            <v>0</v>
-          </cell>
-          <cell r="AC15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>1986</v>
-          </cell>
-          <cell r="B16">
-            <v>1.02</v>
-          </cell>
-          <cell r="C16">
-            <v>0</v>
-          </cell>
-          <cell r="D16">
-            <v>0</v>
-          </cell>
-          <cell r="E16">
-            <v>0</v>
-          </cell>
-          <cell r="F16">
-            <v>0</v>
-          </cell>
-          <cell r="G16">
-            <v>0</v>
-          </cell>
-          <cell r="H16">
-            <v>0</v>
-          </cell>
-          <cell r="I16">
-            <v>0</v>
-          </cell>
-          <cell r="J16">
-            <v>0</v>
-          </cell>
-          <cell r="K16">
-            <v>0</v>
-          </cell>
-          <cell r="L16">
-            <v>0</v>
-          </cell>
-          <cell r="M16">
-            <v>0</v>
-          </cell>
-          <cell r="N16">
-            <v>0</v>
-          </cell>
-          <cell r="O16">
-            <v>0</v>
-          </cell>
-          <cell r="P16">
-            <v>0</v>
-          </cell>
-          <cell r="Q16">
-            <v>0</v>
-          </cell>
-          <cell r="R16">
-            <v>0</v>
-          </cell>
-          <cell r="S16">
-            <v>0</v>
-          </cell>
-          <cell r="T16">
-            <v>0</v>
-          </cell>
-          <cell r="U16">
-            <v>0</v>
-          </cell>
-          <cell r="V16">
-            <v>0</v>
-          </cell>
-          <cell r="W16">
-            <v>0</v>
-          </cell>
-          <cell r="X16">
-            <v>0</v>
-          </cell>
-          <cell r="Y16">
-            <v>0</v>
-          </cell>
-          <cell r="Z16">
-            <v>0</v>
-          </cell>
-          <cell r="AA16">
-            <v>0</v>
-          </cell>
-          <cell r="AB16">
-            <v>0</v>
-          </cell>
-          <cell r="AC16">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>1987</v>
-          </cell>
-          <cell r="B17">
-            <v>1.02</v>
-          </cell>
-          <cell r="C17">
-            <v>0</v>
-          </cell>
-          <cell r="D17">
-            <v>0</v>
-          </cell>
-          <cell r="E17">
-            <v>0</v>
-          </cell>
-          <cell r="F17">
-            <v>0</v>
-          </cell>
-          <cell r="G17">
-            <v>0</v>
-          </cell>
-          <cell r="H17">
-            <v>0</v>
-          </cell>
-          <cell r="I17">
-            <v>0</v>
-          </cell>
-          <cell r="J17">
-            <v>0</v>
-          </cell>
-          <cell r="K17">
-            <v>0</v>
-          </cell>
-          <cell r="L17">
-            <v>0</v>
-          </cell>
-          <cell r="M17">
-            <v>0</v>
-          </cell>
-          <cell r="N17">
-            <v>0</v>
-          </cell>
-          <cell r="O17">
-            <v>0</v>
-          </cell>
-          <cell r="P17">
-            <v>0</v>
-          </cell>
-          <cell r="Q17">
-            <v>0</v>
-          </cell>
-          <cell r="R17">
-            <v>0</v>
-          </cell>
-          <cell r="S17">
-            <v>0</v>
-          </cell>
-          <cell r="T17">
-            <v>0</v>
-          </cell>
-          <cell r="U17">
-            <v>0</v>
-          </cell>
-          <cell r="V17">
-            <v>0</v>
-          </cell>
-          <cell r="W17">
-            <v>0</v>
-          </cell>
-          <cell r="X17">
-            <v>0</v>
-          </cell>
-          <cell r="Y17">
-            <v>0</v>
-          </cell>
-          <cell r="Z17">
-            <v>0</v>
-          </cell>
-          <cell r="AA17">
-            <v>0</v>
-          </cell>
-          <cell r="AB17">
-            <v>0</v>
-          </cell>
-          <cell r="AC17">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>1988</v>
-          </cell>
-          <cell r="B18">
-            <v>1.02</v>
-          </cell>
-          <cell r="C18">
-            <v>0</v>
-          </cell>
-          <cell r="D18">
-            <v>0</v>
-          </cell>
-          <cell r="E18">
-            <v>0</v>
-          </cell>
-          <cell r="F18">
-            <v>0</v>
-          </cell>
-          <cell r="G18">
-            <v>0</v>
-          </cell>
-          <cell r="H18">
-            <v>0</v>
-          </cell>
-          <cell r="I18">
-            <v>0</v>
-          </cell>
-          <cell r="J18">
-            <v>0</v>
-          </cell>
-          <cell r="K18">
-            <v>0</v>
-          </cell>
-          <cell r="L18">
-            <v>0</v>
-          </cell>
-          <cell r="M18">
-            <v>0</v>
-          </cell>
-          <cell r="N18">
-            <v>0</v>
-          </cell>
-          <cell r="O18">
-            <v>0</v>
-          </cell>
-          <cell r="P18">
-            <v>0</v>
-          </cell>
-          <cell r="Q18">
-            <v>0</v>
-          </cell>
-          <cell r="R18">
-            <v>0</v>
-          </cell>
-          <cell r="S18">
-            <v>0</v>
-          </cell>
-          <cell r="T18">
-            <v>0</v>
-          </cell>
-          <cell r="U18">
-            <v>0</v>
-          </cell>
-          <cell r="V18">
-            <v>0</v>
-          </cell>
-          <cell r="W18">
-            <v>0</v>
-          </cell>
-          <cell r="X18">
-            <v>0</v>
-          </cell>
-          <cell r="Y18">
-            <v>0</v>
-          </cell>
-          <cell r="Z18">
-            <v>0</v>
-          </cell>
-          <cell r="AA18">
-            <v>0</v>
-          </cell>
-          <cell r="AB18">
-            <v>0</v>
-          </cell>
-          <cell r="AC18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>1989</v>
-          </cell>
-          <cell r="B19">
-            <v>1.02</v>
-          </cell>
-          <cell r="C19">
-            <v>0</v>
-          </cell>
-          <cell r="D19">
-            <v>0</v>
-          </cell>
-          <cell r="E19">
-            <v>0</v>
-          </cell>
-          <cell r="F19">
-            <v>0</v>
-          </cell>
-          <cell r="G19">
-            <v>0</v>
-          </cell>
-          <cell r="H19">
-            <v>0</v>
-          </cell>
-          <cell r="I19">
-            <v>0</v>
-          </cell>
-          <cell r="J19">
-            <v>0</v>
-          </cell>
-          <cell r="K19">
-            <v>0</v>
-          </cell>
-          <cell r="L19">
-            <v>0</v>
-          </cell>
-          <cell r="M19">
-            <v>0</v>
-          </cell>
-          <cell r="N19">
-            <v>0</v>
-          </cell>
-          <cell r="O19">
-            <v>0</v>
-          </cell>
-          <cell r="P19">
-            <v>0</v>
-          </cell>
-          <cell r="Q19">
-            <v>0</v>
-          </cell>
-          <cell r="R19">
-            <v>0</v>
-          </cell>
-          <cell r="S19">
-            <v>0</v>
-          </cell>
-          <cell r="T19">
-            <v>0</v>
-          </cell>
-          <cell r="U19">
-            <v>0</v>
-          </cell>
-          <cell r="V19">
-            <v>0</v>
-          </cell>
-          <cell r="W19">
-            <v>0</v>
-          </cell>
-          <cell r="X19">
-            <v>0</v>
-          </cell>
-          <cell r="Y19">
-            <v>0</v>
-          </cell>
-          <cell r="Z19">
-            <v>0</v>
-          </cell>
-          <cell r="AA19">
-            <v>0</v>
-          </cell>
-          <cell r="AB19">
-            <v>0</v>
-          </cell>
-          <cell r="AC19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>1990</v>
-          </cell>
-          <cell r="B20">
-            <v>1.02</v>
-          </cell>
-          <cell r="C20">
-            <v>0</v>
-          </cell>
-          <cell r="D20">
-            <v>0</v>
-          </cell>
-          <cell r="E20">
-            <v>0</v>
-          </cell>
-          <cell r="F20">
-            <v>0</v>
-          </cell>
-          <cell r="G20">
-            <v>0</v>
-          </cell>
-          <cell r="H20">
-            <v>0</v>
-          </cell>
-          <cell r="I20">
-            <v>0</v>
-          </cell>
-          <cell r="J20">
-            <v>0</v>
-          </cell>
-          <cell r="K20">
-            <v>0</v>
-          </cell>
-          <cell r="L20">
-            <v>0</v>
-          </cell>
-          <cell r="M20">
-            <v>0</v>
-          </cell>
-          <cell r="N20">
-            <v>0</v>
-          </cell>
-          <cell r="O20">
-            <v>0</v>
-          </cell>
-          <cell r="P20">
-            <v>0</v>
-          </cell>
-          <cell r="Q20">
-            <v>0</v>
-          </cell>
-          <cell r="R20">
-            <v>0</v>
-          </cell>
-          <cell r="S20">
-            <v>0</v>
-          </cell>
-          <cell r="T20">
-            <v>0</v>
-          </cell>
-          <cell r="U20">
-            <v>0</v>
-          </cell>
-          <cell r="V20">
-            <v>0</v>
-          </cell>
-          <cell r="W20">
-            <v>0</v>
-          </cell>
-          <cell r="X20">
-            <v>0</v>
-          </cell>
-          <cell r="Y20">
-            <v>0</v>
-          </cell>
-          <cell r="Z20">
-            <v>0</v>
-          </cell>
-          <cell r="AA20">
-            <v>0</v>
-          </cell>
-          <cell r="AB20">
-            <v>0</v>
-          </cell>
-          <cell r="AC20">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>1991</v>
-          </cell>
-          <cell r="B21">
-            <v>1.02</v>
-          </cell>
-          <cell r="C21">
-            <v>0</v>
-          </cell>
-          <cell r="D21">
-            <v>0</v>
-          </cell>
-          <cell r="E21">
-            <v>0</v>
-          </cell>
-          <cell r="F21">
-            <v>0</v>
-          </cell>
-          <cell r="G21">
-            <v>0</v>
-          </cell>
-          <cell r="H21">
-            <v>0</v>
-          </cell>
-          <cell r="I21">
-            <v>0</v>
-          </cell>
-          <cell r="J21">
-            <v>0</v>
-          </cell>
-          <cell r="K21">
-            <v>0</v>
-          </cell>
-          <cell r="L21">
-            <v>0</v>
-          </cell>
-          <cell r="M21">
-            <v>0</v>
-          </cell>
-          <cell r="N21">
-            <v>0</v>
-          </cell>
-          <cell r="O21">
-            <v>0</v>
-          </cell>
-          <cell r="P21">
-            <v>0</v>
-          </cell>
-          <cell r="Q21">
-            <v>0</v>
-          </cell>
-          <cell r="R21">
-            <v>0</v>
-          </cell>
-          <cell r="S21">
-            <v>0</v>
-          </cell>
-          <cell r="T21">
-            <v>0</v>
-          </cell>
-          <cell r="U21">
-            <v>0</v>
-          </cell>
-          <cell r="V21">
-            <v>0</v>
-          </cell>
-          <cell r="W21">
-            <v>0</v>
-          </cell>
-          <cell r="X21">
-            <v>0</v>
-          </cell>
-          <cell r="Y21">
-            <v>0</v>
-          </cell>
-          <cell r="Z21">
-            <v>0</v>
-          </cell>
-          <cell r="AA21">
-            <v>0</v>
-          </cell>
-          <cell r="AB21">
-            <v>0</v>
-          </cell>
-          <cell r="AC21">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>1992</v>
-          </cell>
-          <cell r="B22">
-            <v>1.02</v>
-          </cell>
-          <cell r="C22">
-            <v>0</v>
-          </cell>
-          <cell r="D22">
-            <v>0</v>
-          </cell>
-          <cell r="E22">
-            <v>0</v>
-          </cell>
-          <cell r="F22">
-            <v>0</v>
-          </cell>
-          <cell r="G22">
-            <v>0</v>
-          </cell>
-          <cell r="H22">
-            <v>0</v>
-          </cell>
-          <cell r="I22">
-            <v>0</v>
-          </cell>
-          <cell r="J22">
-            <v>0</v>
-          </cell>
-          <cell r="K22">
-            <v>0</v>
-          </cell>
-          <cell r="L22">
-            <v>0</v>
-          </cell>
-          <cell r="M22">
-            <v>0</v>
-          </cell>
-          <cell r="N22">
-            <v>0</v>
-          </cell>
-          <cell r="O22">
-            <v>0</v>
-          </cell>
-          <cell r="P22">
-            <v>0</v>
-          </cell>
-          <cell r="Q22">
-            <v>0</v>
-          </cell>
-          <cell r="R22">
-            <v>0</v>
-          </cell>
-          <cell r="S22">
-            <v>0</v>
-          </cell>
-          <cell r="T22">
-            <v>0</v>
-          </cell>
-          <cell r="U22">
-            <v>0</v>
-          </cell>
-          <cell r="V22">
-            <v>0</v>
-          </cell>
-          <cell r="W22">
-            <v>0</v>
-          </cell>
-          <cell r="X22">
-            <v>0</v>
-          </cell>
-          <cell r="Y22">
-            <v>0</v>
-          </cell>
-          <cell r="Z22">
-            <v>0</v>
-          </cell>
-          <cell r="AA22">
-            <v>0</v>
-          </cell>
-          <cell r="AB22">
-            <v>0</v>
-          </cell>
-          <cell r="AC22">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>1993</v>
-          </cell>
-          <cell r="B23">
-            <v>1.02</v>
-          </cell>
-          <cell r="C23">
-            <v>0</v>
-          </cell>
-          <cell r="D23">
-            <v>0</v>
-          </cell>
-          <cell r="E23">
-            <v>0</v>
-          </cell>
-          <cell r="F23">
-            <v>0</v>
-          </cell>
-          <cell r="G23">
-            <v>0</v>
-          </cell>
-          <cell r="H23">
-            <v>0</v>
-          </cell>
-          <cell r="I23">
-            <v>0</v>
-          </cell>
-          <cell r="J23">
-            <v>0</v>
-          </cell>
-          <cell r="K23">
-            <v>0</v>
-          </cell>
-          <cell r="L23">
-            <v>0</v>
-          </cell>
-          <cell r="M23">
-            <v>0</v>
-          </cell>
-          <cell r="N23">
-            <v>0</v>
-          </cell>
-          <cell r="O23">
-            <v>0</v>
-          </cell>
-          <cell r="P23">
-            <v>0</v>
-          </cell>
-          <cell r="Q23">
-            <v>0</v>
-          </cell>
-          <cell r="R23">
-            <v>0</v>
-          </cell>
-          <cell r="S23">
-            <v>0</v>
-          </cell>
-          <cell r="T23">
-            <v>0</v>
-          </cell>
-          <cell r="U23">
-            <v>0</v>
-          </cell>
-          <cell r="V23">
-            <v>0</v>
-          </cell>
-          <cell r="W23">
-            <v>0</v>
-          </cell>
-          <cell r="X23">
-            <v>0</v>
-          </cell>
-          <cell r="Y23">
-            <v>0</v>
-          </cell>
-          <cell r="Z23">
-            <v>0</v>
-          </cell>
-          <cell r="AA23">
-            <v>0</v>
-          </cell>
-          <cell r="AB23">
-            <v>0</v>
-          </cell>
-          <cell r="AC23">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>1994</v>
-          </cell>
-          <cell r="B24">
-            <v>1.02</v>
-          </cell>
-          <cell r="C24">
-            <v>0</v>
-          </cell>
-          <cell r="D24">
-            <v>0</v>
-          </cell>
-          <cell r="E24">
-            <v>0</v>
-          </cell>
-          <cell r="F24">
-            <v>0</v>
-          </cell>
-          <cell r="G24">
-            <v>0</v>
-          </cell>
-          <cell r="H24">
-            <v>0</v>
-          </cell>
-          <cell r="I24">
-            <v>0</v>
-          </cell>
-          <cell r="J24">
-            <v>0</v>
-          </cell>
-          <cell r="K24">
-            <v>0</v>
-          </cell>
-          <cell r="L24">
-            <v>0</v>
-          </cell>
-          <cell r="M24">
-            <v>0</v>
-          </cell>
-          <cell r="N24">
-            <v>0</v>
-          </cell>
-          <cell r="O24">
-            <v>0</v>
-          </cell>
-          <cell r="P24">
-            <v>0</v>
-          </cell>
-          <cell r="Q24">
-            <v>0</v>
-          </cell>
-          <cell r="R24">
-            <v>0</v>
-          </cell>
-          <cell r="S24">
-            <v>0</v>
-          </cell>
-          <cell r="T24">
-            <v>0</v>
-          </cell>
-          <cell r="U24">
-            <v>0</v>
-          </cell>
-          <cell r="V24">
-            <v>0</v>
-          </cell>
-          <cell r="W24">
-            <v>0</v>
-          </cell>
-          <cell r="X24">
-            <v>0</v>
-          </cell>
-          <cell r="Y24">
-            <v>0</v>
-          </cell>
-          <cell r="Z24">
-            <v>0</v>
-          </cell>
-          <cell r="AA24">
-            <v>0</v>
-          </cell>
-          <cell r="AB24">
-            <v>0</v>
-          </cell>
-          <cell r="AC24">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>1995</v>
-          </cell>
-          <cell r="B25">
-            <v>1.0119</v>
-          </cell>
-          <cell r="C25">
-            <v>0</v>
-          </cell>
-          <cell r="D25">
-            <v>0</v>
-          </cell>
-          <cell r="E25">
-            <v>0</v>
-          </cell>
-          <cell r="F25">
-            <v>0</v>
-          </cell>
-          <cell r="G25">
-            <v>0</v>
-          </cell>
-          <cell r="H25">
-            <v>0</v>
-          </cell>
-          <cell r="I25">
-            <v>0</v>
-          </cell>
-          <cell r="J25">
-            <v>0</v>
-          </cell>
-          <cell r="K25">
-            <v>0</v>
-          </cell>
-          <cell r="L25">
-            <v>0</v>
-          </cell>
-          <cell r="M25">
-            <v>0</v>
-          </cell>
-          <cell r="N25">
-            <v>0</v>
-          </cell>
-          <cell r="O25">
-            <v>0</v>
-          </cell>
-          <cell r="P25">
-            <v>0</v>
-          </cell>
-          <cell r="Q25">
-            <v>0</v>
-          </cell>
-          <cell r="R25">
-            <v>0</v>
-          </cell>
-          <cell r="S25">
-            <v>0</v>
-          </cell>
-          <cell r="T25">
-            <v>0</v>
-          </cell>
-          <cell r="U25">
-            <v>0</v>
-          </cell>
-          <cell r="V25">
-            <v>0</v>
-          </cell>
-          <cell r="W25">
-            <v>0</v>
-          </cell>
-          <cell r="X25">
-            <v>0</v>
-          </cell>
-          <cell r="Y25">
-            <v>0</v>
-          </cell>
-          <cell r="Z25">
-            <v>0</v>
-          </cell>
-          <cell r="AA25">
-            <v>0</v>
-          </cell>
-          <cell r="AB25">
-            <v>0</v>
-          </cell>
-          <cell r="AC25">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>1996</v>
-          </cell>
-          <cell r="B26">
-            <v>1.0111000000000001</v>
-          </cell>
-          <cell r="C26">
-            <v>0</v>
-          </cell>
-          <cell r="D26">
-            <v>0</v>
-          </cell>
-          <cell r="E26">
-            <v>0</v>
-          </cell>
-          <cell r="F26">
-            <v>0</v>
-          </cell>
-          <cell r="G26">
-            <v>0</v>
-          </cell>
-          <cell r="H26">
-            <v>0</v>
-          </cell>
-          <cell r="I26">
-            <v>0</v>
-          </cell>
-          <cell r="J26">
-            <v>0</v>
-          </cell>
-          <cell r="K26">
-            <v>0</v>
-          </cell>
-          <cell r="L26">
-            <v>0</v>
-          </cell>
-          <cell r="M26">
-            <v>0</v>
-          </cell>
-          <cell r="N26">
-            <v>0</v>
-          </cell>
-          <cell r="O26">
-            <v>0</v>
-          </cell>
-          <cell r="P26">
-            <v>0</v>
-          </cell>
-          <cell r="Q26">
-            <v>0</v>
-          </cell>
-          <cell r="R26">
-            <v>0</v>
-          </cell>
-          <cell r="S26">
-            <v>0</v>
-          </cell>
-          <cell r="T26">
-            <v>0</v>
-          </cell>
-          <cell r="U26">
-            <v>0</v>
-          </cell>
-          <cell r="V26">
-            <v>0</v>
-          </cell>
-          <cell r="W26">
-            <v>0</v>
-          </cell>
-          <cell r="X26">
-            <v>0</v>
-          </cell>
-          <cell r="Y26">
-            <v>0</v>
-          </cell>
-          <cell r="Z26">
-            <v>0</v>
-          </cell>
-          <cell r="AA26">
-            <v>0</v>
-          </cell>
-          <cell r="AB26">
-            <v>0</v>
-          </cell>
-          <cell r="AC26">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>1997</v>
-          </cell>
-          <cell r="B27">
-            <v>1.02</v>
-          </cell>
-          <cell r="C27">
-            <v>0</v>
-          </cell>
-          <cell r="D27">
-            <v>0</v>
-          </cell>
-          <cell r="E27">
-            <v>0</v>
-          </cell>
-          <cell r="F27">
-            <v>0</v>
-          </cell>
-          <cell r="G27">
-            <v>0</v>
-          </cell>
-          <cell r="H27">
-            <v>0</v>
-          </cell>
-          <cell r="I27">
-            <v>0</v>
-          </cell>
-          <cell r="J27">
-            <v>0</v>
-          </cell>
-          <cell r="K27">
-            <v>0</v>
-          </cell>
-          <cell r="L27">
-            <v>0</v>
-          </cell>
-          <cell r="M27">
-            <v>0</v>
-          </cell>
-          <cell r="N27">
-            <v>0</v>
-          </cell>
-          <cell r="O27">
-            <v>0</v>
-          </cell>
-          <cell r="P27">
-            <v>0</v>
-          </cell>
-          <cell r="Q27">
-            <v>0</v>
-          </cell>
-          <cell r="R27">
-            <v>0</v>
-          </cell>
-          <cell r="S27">
-            <v>0</v>
-          </cell>
-          <cell r="T27">
-            <v>0</v>
-          </cell>
-          <cell r="U27">
-            <v>0</v>
-          </cell>
-          <cell r="V27">
-            <v>0</v>
-          </cell>
-          <cell r="W27">
-            <v>0</v>
-          </cell>
-          <cell r="X27">
-            <v>0</v>
-          </cell>
-          <cell r="Y27">
-            <v>0</v>
-          </cell>
-          <cell r="Z27">
-            <v>0</v>
-          </cell>
-          <cell r="AA27">
-            <v>0</v>
-          </cell>
-          <cell r="AB27">
-            <v>0</v>
-          </cell>
-          <cell r="AC27">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>1998</v>
-          </cell>
-          <cell r="B28">
-            <v>1.02</v>
-          </cell>
-          <cell r="C28">
-            <v>0</v>
-          </cell>
-          <cell r="D28">
-            <v>0</v>
-          </cell>
-          <cell r="E28">
-            <v>0</v>
-          </cell>
-          <cell r="F28">
-            <v>0</v>
-          </cell>
-          <cell r="G28">
-            <v>0</v>
-          </cell>
-          <cell r="H28">
-            <v>0</v>
-          </cell>
-          <cell r="I28">
-            <v>0</v>
-          </cell>
-          <cell r="J28">
-            <v>0</v>
-          </cell>
-          <cell r="K28">
-            <v>0</v>
-          </cell>
-          <cell r="L28">
-            <v>0</v>
-          </cell>
-          <cell r="M28">
-            <v>0</v>
-          </cell>
-          <cell r="N28">
-            <v>0</v>
-          </cell>
-          <cell r="O28">
-            <v>0</v>
-          </cell>
-          <cell r="P28">
-            <v>0</v>
-          </cell>
-          <cell r="Q28">
-            <v>0</v>
-          </cell>
-          <cell r="R28">
-            <v>0</v>
-          </cell>
-          <cell r="S28">
-            <v>0</v>
-          </cell>
-          <cell r="T28">
-            <v>0</v>
-          </cell>
-          <cell r="U28">
-            <v>0</v>
-          </cell>
-          <cell r="V28">
-            <v>0</v>
-          </cell>
-          <cell r="W28">
-            <v>0</v>
-          </cell>
-          <cell r="X28">
-            <v>0</v>
-          </cell>
-          <cell r="Y28">
-            <v>0</v>
-          </cell>
-          <cell r="Z28">
-            <v>0</v>
-          </cell>
-          <cell r="AA28">
-            <v>0</v>
-          </cell>
-          <cell r="AB28">
-            <v>0</v>
-          </cell>
-          <cell r="AC28">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>1999</v>
-          </cell>
-          <cell r="B29">
-            <v>1.0185299999999999</v>
-          </cell>
-          <cell r="C29">
-            <v>0</v>
-          </cell>
-          <cell r="D29">
-            <v>0</v>
-          </cell>
-          <cell r="E29">
-            <v>0</v>
-          </cell>
-          <cell r="F29">
-            <v>0</v>
-          </cell>
-          <cell r="G29">
-            <v>0</v>
-          </cell>
-          <cell r="H29">
-            <v>0</v>
-          </cell>
-          <cell r="I29">
-            <v>0</v>
-          </cell>
-          <cell r="J29">
-            <v>0</v>
-          </cell>
-          <cell r="K29">
-            <v>0</v>
-          </cell>
-          <cell r="L29">
-            <v>0</v>
-          </cell>
-          <cell r="M29">
-            <v>0</v>
-          </cell>
-          <cell r="N29">
-            <v>0</v>
-          </cell>
-          <cell r="O29">
-            <v>0</v>
-          </cell>
-          <cell r="P29">
-            <v>0</v>
-          </cell>
-          <cell r="Q29">
-            <v>0</v>
-          </cell>
-          <cell r="R29">
-            <v>0</v>
-          </cell>
-          <cell r="S29">
-            <v>0</v>
-          </cell>
-          <cell r="T29">
-            <v>0</v>
-          </cell>
-          <cell r="U29">
-            <v>0</v>
-          </cell>
-          <cell r="V29">
-            <v>0</v>
-          </cell>
-          <cell r="W29">
-            <v>0</v>
-          </cell>
-          <cell r="X29">
-            <v>0</v>
-          </cell>
-          <cell r="Y29">
-            <v>0</v>
-          </cell>
-          <cell r="Z29">
-            <v>0</v>
-          </cell>
-          <cell r="AA29">
-            <v>0</v>
-          </cell>
-          <cell r="AB29">
-            <v>0</v>
-          </cell>
-          <cell r="AC29">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>2000</v>
-          </cell>
-          <cell r="B30">
-            <v>1.02</v>
-          </cell>
-          <cell r="C30">
-            <v>0</v>
-          </cell>
-          <cell r="D30">
-            <v>0</v>
-          </cell>
-          <cell r="E30">
-            <v>0</v>
-          </cell>
-          <cell r="F30">
-            <v>0</v>
-          </cell>
-          <cell r="G30">
-            <v>0</v>
-          </cell>
-          <cell r="H30">
-            <v>0</v>
-          </cell>
-          <cell r="I30">
-            <v>0</v>
-          </cell>
-          <cell r="J30">
-            <v>0</v>
-          </cell>
-          <cell r="K30">
-            <v>0</v>
-          </cell>
-          <cell r="L30">
-            <v>0</v>
-          </cell>
-          <cell r="M30">
-            <v>0</v>
-          </cell>
-          <cell r="N30">
-            <v>0</v>
-          </cell>
-          <cell r="O30">
-            <v>0</v>
-          </cell>
-          <cell r="P30">
-            <v>0</v>
-          </cell>
-          <cell r="Q30">
-            <v>0</v>
-          </cell>
-          <cell r="R30">
-            <v>0</v>
-          </cell>
-          <cell r="S30">
-            <v>0</v>
-          </cell>
-          <cell r="T30">
-            <v>0</v>
-          </cell>
-          <cell r="U30">
-            <v>0</v>
-          </cell>
-          <cell r="V30">
-            <v>0</v>
-          </cell>
-          <cell r="W30">
-            <v>0</v>
-          </cell>
-          <cell r="X30">
-            <v>0</v>
-          </cell>
-          <cell r="Y30">
-            <v>0</v>
-          </cell>
-          <cell r="Z30">
-            <v>0</v>
-          </cell>
-          <cell r="AA30">
-            <v>0</v>
-          </cell>
-          <cell r="AB30">
-            <v>0</v>
-          </cell>
-          <cell r="AC30">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>2001</v>
-          </cell>
-          <cell r="B31">
-            <v>1.02</v>
-          </cell>
-          <cell r="C31">
-            <v>0</v>
-          </cell>
-          <cell r="D31">
-            <v>0</v>
-          </cell>
-          <cell r="E31">
-            <v>0</v>
-          </cell>
-          <cell r="F31">
-            <v>0</v>
-          </cell>
-          <cell r="G31">
-            <v>0</v>
-          </cell>
-          <cell r="H31">
-            <v>0</v>
-          </cell>
-          <cell r="I31">
-            <v>0</v>
-          </cell>
-          <cell r="J31">
-            <v>0</v>
-          </cell>
-          <cell r="K31">
-            <v>0</v>
-          </cell>
-          <cell r="L31">
-            <v>0</v>
-          </cell>
-          <cell r="M31">
-            <v>0</v>
-          </cell>
-          <cell r="N31">
-            <v>0</v>
-          </cell>
-          <cell r="O31">
-            <v>0</v>
-          </cell>
-          <cell r="P31">
-            <v>0</v>
-          </cell>
-          <cell r="Q31">
-            <v>0</v>
-          </cell>
-          <cell r="R31">
-            <v>0</v>
-          </cell>
-          <cell r="S31">
-            <v>0</v>
-          </cell>
-          <cell r="T31">
-            <v>0</v>
-          </cell>
-          <cell r="U31">
-            <v>0</v>
-          </cell>
-          <cell r="V31">
-            <v>0</v>
-          </cell>
-          <cell r="W31">
-            <v>0</v>
-          </cell>
-          <cell r="X31">
-            <v>0</v>
-          </cell>
-          <cell r="Y31">
-            <v>0</v>
-          </cell>
-          <cell r="Z31">
-            <v>0</v>
-          </cell>
-          <cell r="AA31">
-            <v>0</v>
-          </cell>
-          <cell r="AB31">
-            <v>0</v>
-          </cell>
-          <cell r="AC31">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>2002</v>
-          </cell>
-          <cell r="B32">
-            <v>1.02</v>
-          </cell>
-          <cell r="C32">
-            <v>0</v>
-          </cell>
-          <cell r="D32">
-            <v>0</v>
-          </cell>
-          <cell r="E32">
-            <v>0</v>
-          </cell>
-          <cell r="F32">
-            <v>0</v>
-          </cell>
-          <cell r="G32">
-            <v>0</v>
-          </cell>
-          <cell r="H32">
-            <v>0</v>
-          </cell>
-          <cell r="I32">
-            <v>0</v>
-          </cell>
-          <cell r="J32">
-            <v>0</v>
-          </cell>
-          <cell r="K32">
-            <v>0</v>
-          </cell>
-          <cell r="L32">
-            <v>0</v>
-          </cell>
-          <cell r="M32">
-            <v>0</v>
-          </cell>
-          <cell r="N32">
-            <v>0</v>
-          </cell>
-          <cell r="O32">
-            <v>0</v>
-          </cell>
-          <cell r="P32">
-            <v>0</v>
-          </cell>
-          <cell r="Q32">
-            <v>0</v>
-          </cell>
-          <cell r="R32">
-            <v>0</v>
-          </cell>
-          <cell r="S32">
-            <v>0</v>
-          </cell>
-          <cell r="T32">
-            <v>0</v>
-          </cell>
-          <cell r="U32">
-            <v>0</v>
-          </cell>
-          <cell r="V32">
-            <v>0</v>
-          </cell>
-          <cell r="W32">
-            <v>0</v>
-          </cell>
-          <cell r="X32">
-            <v>0</v>
-          </cell>
-          <cell r="Y32">
-            <v>0</v>
-          </cell>
-          <cell r="Z32">
-            <v>0</v>
-          </cell>
-          <cell r="AA32">
-            <v>0</v>
-          </cell>
-          <cell r="AB32">
-            <v>0</v>
-          </cell>
-          <cell r="AC32">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>2003</v>
-          </cell>
-          <cell r="B33">
-            <v>1.02</v>
-          </cell>
-          <cell r="C33">
-            <v>0</v>
-          </cell>
-          <cell r="D33">
-            <v>0</v>
-          </cell>
-          <cell r="E33">
-            <v>0</v>
-          </cell>
-          <cell r="F33">
-            <v>0</v>
-          </cell>
-          <cell r="G33">
-            <v>0</v>
-          </cell>
-          <cell r="H33">
-            <v>0</v>
-          </cell>
-          <cell r="I33">
-            <v>0</v>
-          </cell>
-          <cell r="J33">
-            <v>0</v>
-          </cell>
-          <cell r="K33">
-            <v>0</v>
-          </cell>
-          <cell r="L33">
-            <v>0</v>
-          </cell>
-          <cell r="M33">
-            <v>0</v>
-          </cell>
-          <cell r="N33">
-            <v>0</v>
-          </cell>
-          <cell r="O33">
-            <v>0</v>
-          </cell>
-          <cell r="P33">
-            <v>0</v>
-          </cell>
-          <cell r="Q33">
-            <v>0</v>
-          </cell>
-          <cell r="R33">
-            <v>0</v>
-          </cell>
-          <cell r="S33">
-            <v>0</v>
-          </cell>
-          <cell r="T33">
-            <v>0</v>
-          </cell>
-          <cell r="U33">
-            <v>0</v>
-          </cell>
-          <cell r="V33">
-            <v>0</v>
-          </cell>
-          <cell r="W33">
-            <v>0</v>
-          </cell>
-          <cell r="X33">
-            <v>0</v>
-          </cell>
-          <cell r="Y33">
-            <v>0</v>
-          </cell>
-          <cell r="Z33">
-            <v>0</v>
-          </cell>
-          <cell r="AA33">
-            <v>0</v>
-          </cell>
-          <cell r="AB33">
-            <v>0</v>
-          </cell>
-          <cell r="AC33">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>2004</v>
-          </cell>
-          <cell r="B34">
-            <v>1.01867</v>
-          </cell>
-          <cell r="C34">
-            <v>0</v>
-          </cell>
-          <cell r="D34">
-            <v>0</v>
-          </cell>
-          <cell r="E34">
-            <v>0</v>
-          </cell>
-          <cell r="F34">
-            <v>0</v>
-          </cell>
-          <cell r="G34">
-            <v>0</v>
-          </cell>
-          <cell r="H34">
-            <v>0</v>
-          </cell>
-          <cell r="I34">
-            <v>0</v>
-          </cell>
-          <cell r="J34">
-            <v>0</v>
-          </cell>
-          <cell r="K34">
-            <v>0</v>
-          </cell>
-          <cell r="L34">
-            <v>0</v>
-          </cell>
-          <cell r="M34">
-            <v>0</v>
-          </cell>
-          <cell r="N34">
-            <v>0</v>
-          </cell>
-          <cell r="O34">
-            <v>0</v>
-          </cell>
-          <cell r="P34">
-            <v>0</v>
-          </cell>
-          <cell r="Q34">
-            <v>0</v>
-          </cell>
-          <cell r="R34">
-            <v>0</v>
-          </cell>
-          <cell r="S34">
-            <v>0</v>
-          </cell>
-          <cell r="T34">
-            <v>0</v>
-          </cell>
-          <cell r="U34">
-            <v>0</v>
-          </cell>
-          <cell r="V34">
-            <v>0</v>
-          </cell>
-          <cell r="W34">
-            <v>0</v>
-          </cell>
-          <cell r="X34">
-            <v>0</v>
-          </cell>
-          <cell r="Y34">
-            <v>0</v>
-          </cell>
-          <cell r="Z34">
-            <v>0</v>
-          </cell>
-          <cell r="AA34">
-            <v>0</v>
-          </cell>
-          <cell r="AB34">
-            <v>0</v>
-          </cell>
-          <cell r="AC34">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>2005</v>
-          </cell>
-          <cell r="B35">
-            <v>1.02</v>
-          </cell>
-          <cell r="C35">
-            <v>0</v>
-          </cell>
-          <cell r="D35">
-            <v>0</v>
-          </cell>
-          <cell r="E35">
-            <v>0</v>
-          </cell>
-          <cell r="F35">
-            <v>0</v>
-          </cell>
-          <cell r="G35">
-            <v>0</v>
-          </cell>
-          <cell r="H35">
-            <v>0</v>
-          </cell>
-          <cell r="I35">
-            <v>0</v>
-          </cell>
-          <cell r="J35">
-            <v>0</v>
-          </cell>
-          <cell r="K35">
-            <v>0</v>
-          </cell>
-          <cell r="L35">
-            <v>0</v>
-          </cell>
-          <cell r="M35">
-            <v>0</v>
-          </cell>
-          <cell r="N35">
-            <v>0</v>
-          </cell>
-          <cell r="O35">
-            <v>0</v>
-          </cell>
-          <cell r="P35">
-            <v>0</v>
-          </cell>
-          <cell r="Q35">
-            <v>0</v>
-          </cell>
-          <cell r="R35">
-            <v>0</v>
-          </cell>
-          <cell r="S35">
-            <v>0</v>
-          </cell>
-          <cell r="T35">
-            <v>0</v>
-          </cell>
-          <cell r="U35">
-            <v>0</v>
-          </cell>
-          <cell r="V35">
-            <v>0</v>
-          </cell>
-          <cell r="W35">
-            <v>0</v>
-          </cell>
-          <cell r="X35">
-            <v>0</v>
-          </cell>
-          <cell r="Y35">
-            <v>0</v>
-          </cell>
-          <cell r="Z35">
-            <v>0</v>
-          </cell>
-          <cell r="AA35">
-            <v>0</v>
-          </cell>
-          <cell r="AB35">
-            <v>0</v>
-          </cell>
-          <cell r="AC35">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>2006</v>
-          </cell>
-          <cell r="B36">
-            <v>1.02</v>
-          </cell>
-          <cell r="C36">
-            <v>0</v>
-          </cell>
-          <cell r="D36">
-            <v>0</v>
-          </cell>
-          <cell r="E36">
-            <v>0</v>
-          </cell>
-          <cell r="F36">
-            <v>0</v>
-          </cell>
-          <cell r="G36">
-            <v>0</v>
-          </cell>
-          <cell r="H36">
-            <v>0</v>
-          </cell>
-          <cell r="I36">
-            <v>0</v>
-          </cell>
-          <cell r="J36">
-            <v>0</v>
-          </cell>
-          <cell r="K36">
-            <v>0</v>
-          </cell>
-          <cell r="L36">
-            <v>0</v>
-          </cell>
-          <cell r="M36">
-            <v>0</v>
-          </cell>
-          <cell r="N36">
-            <v>0</v>
-          </cell>
-          <cell r="O36">
-            <v>0</v>
-          </cell>
-          <cell r="P36">
-            <v>0</v>
-          </cell>
-          <cell r="Q36">
-            <v>0</v>
-          </cell>
-          <cell r="R36">
-            <v>0</v>
-          </cell>
-          <cell r="S36">
-            <v>0</v>
-          </cell>
-          <cell r="T36">
-            <v>0</v>
-          </cell>
-          <cell r="U36">
-            <v>0</v>
-          </cell>
-          <cell r="V36">
-            <v>0</v>
-          </cell>
-          <cell r="W36">
-            <v>0</v>
-          </cell>
-          <cell r="X36">
-            <v>0</v>
-          </cell>
-          <cell r="Y36">
-            <v>0</v>
-          </cell>
-          <cell r="Z36">
-            <v>0</v>
-          </cell>
-          <cell r="AA36">
-            <v>0</v>
-          </cell>
-          <cell r="AB36">
-            <v>0</v>
-          </cell>
-          <cell r="AC36">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>2007</v>
-          </cell>
-          <cell r="B37">
-            <v>1.02</v>
-          </cell>
-          <cell r="C37">
-            <v>0</v>
-          </cell>
-          <cell r="D37">
-            <v>0</v>
-          </cell>
-          <cell r="E37">
-            <v>0</v>
-          </cell>
-          <cell r="F37">
-            <v>0</v>
-          </cell>
-          <cell r="G37">
-            <v>0</v>
-          </cell>
-          <cell r="H37">
-            <v>0</v>
-          </cell>
-          <cell r="I37">
-            <v>0</v>
-          </cell>
-          <cell r="J37">
-            <v>0</v>
-          </cell>
-          <cell r="K37">
-            <v>0</v>
-          </cell>
-          <cell r="L37">
-            <v>0</v>
-          </cell>
-          <cell r="M37">
-            <v>0</v>
-          </cell>
-          <cell r="N37">
-            <v>0</v>
-          </cell>
-          <cell r="O37">
-            <v>0</v>
-          </cell>
-          <cell r="P37">
-            <v>0</v>
-          </cell>
-          <cell r="Q37">
-            <v>0</v>
-          </cell>
-          <cell r="R37">
-            <v>0</v>
-          </cell>
-          <cell r="S37">
-            <v>0</v>
-          </cell>
-          <cell r="T37">
-            <v>0</v>
-          </cell>
-          <cell r="U37">
-            <v>0</v>
-          </cell>
-          <cell r="V37">
-            <v>0</v>
-          </cell>
-          <cell r="W37">
-            <v>0</v>
-          </cell>
-          <cell r="X37">
-            <v>0</v>
-          </cell>
-          <cell r="Y37">
-            <v>0</v>
-          </cell>
-          <cell r="Z37">
-            <v>0</v>
-          </cell>
-          <cell r="AA37">
-            <v>0</v>
-          </cell>
-          <cell r="AB37">
-            <v>0</v>
-          </cell>
-          <cell r="AC37">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>2008</v>
-          </cell>
-          <cell r="B38">
-            <v>1.02</v>
-          </cell>
-          <cell r="C38">
-            <v>0</v>
-          </cell>
-          <cell r="D38">
-            <v>0</v>
-          </cell>
-          <cell r="E38">
-            <v>0</v>
-          </cell>
-          <cell r="F38">
-            <v>0</v>
-          </cell>
-          <cell r="G38">
-            <v>0</v>
-          </cell>
-          <cell r="H38">
-            <v>0</v>
-          </cell>
-          <cell r="I38">
-            <v>0</v>
-          </cell>
-          <cell r="J38">
-            <v>0</v>
-          </cell>
-          <cell r="K38">
-            <v>0</v>
-          </cell>
-          <cell r="L38">
-            <v>0</v>
-          </cell>
-          <cell r="M38">
-            <v>0</v>
-          </cell>
-          <cell r="N38">
-            <v>0</v>
-          </cell>
-          <cell r="O38">
-            <v>0</v>
-          </cell>
-          <cell r="P38">
-            <v>0</v>
-          </cell>
-          <cell r="Q38">
-            <v>0</v>
-          </cell>
-          <cell r="R38">
-            <v>0</v>
-          </cell>
-          <cell r="S38">
-            <v>0</v>
-          </cell>
-          <cell r="T38">
-            <v>0</v>
-          </cell>
-          <cell r="U38">
-            <v>0</v>
-          </cell>
-          <cell r="V38">
-            <v>0</v>
-          </cell>
-          <cell r="W38">
-            <v>0</v>
-          </cell>
-          <cell r="X38">
-            <v>0</v>
-          </cell>
-          <cell r="Y38">
-            <v>0</v>
-          </cell>
-          <cell r="Z38">
-            <v>0</v>
-          </cell>
-          <cell r="AA38">
-            <v>0</v>
-          </cell>
-          <cell r="AB38">
-            <v>0</v>
-          </cell>
-          <cell r="AC38">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>2009</v>
-          </cell>
-          <cell r="B39">
-            <v>1.02</v>
-          </cell>
-          <cell r="C39">
-            <v>0</v>
-          </cell>
-          <cell r="D39">
-            <v>0</v>
-          </cell>
-          <cell r="E39">
-            <v>0</v>
-          </cell>
-          <cell r="F39">
-            <v>0</v>
-          </cell>
-          <cell r="G39">
-            <v>0</v>
-          </cell>
-          <cell r="H39">
-            <v>0</v>
-          </cell>
-          <cell r="I39">
-            <v>0</v>
-          </cell>
-          <cell r="J39">
-            <v>0</v>
-          </cell>
-          <cell r="K39">
-            <v>0</v>
-          </cell>
-          <cell r="L39">
-            <v>0</v>
-          </cell>
-          <cell r="M39">
-            <v>0</v>
-          </cell>
-          <cell r="N39">
-            <v>0</v>
-          </cell>
-          <cell r="O39">
-            <v>0</v>
-          </cell>
-          <cell r="P39">
-            <v>0</v>
-          </cell>
-          <cell r="Q39">
-            <v>0</v>
-          </cell>
-          <cell r="R39">
-            <v>0</v>
-          </cell>
-          <cell r="S39">
-            <v>0</v>
-          </cell>
-          <cell r="T39">
-            <v>0</v>
-          </cell>
-          <cell r="U39">
-            <v>0</v>
-          </cell>
-          <cell r="V39">
-            <v>0</v>
-          </cell>
-          <cell r="W39">
-            <v>0</v>
-          </cell>
-          <cell r="X39">
-            <v>0</v>
-          </cell>
-          <cell r="Y39">
-            <v>0</v>
-          </cell>
-          <cell r="Z39">
-            <v>0</v>
-          </cell>
-          <cell r="AA39">
-            <v>0</v>
-          </cell>
-          <cell r="AB39">
-            <v>0</v>
-          </cell>
-          <cell r="AC39">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>2010</v>
-          </cell>
-          <cell r="B40">
-            <v>0.99763000000000002</v>
-          </cell>
-          <cell r="C40">
-            <v>0</v>
-          </cell>
-          <cell r="D40">
-            <v>0</v>
-          </cell>
-          <cell r="E40">
-            <v>0</v>
-          </cell>
-          <cell r="F40">
-            <v>0</v>
-          </cell>
-          <cell r="G40">
-            <v>0</v>
-          </cell>
-          <cell r="H40">
-            <v>0</v>
-          </cell>
-          <cell r="I40">
-            <v>0</v>
-          </cell>
-          <cell r="J40">
-            <v>0</v>
-          </cell>
-          <cell r="K40">
-            <v>0</v>
-          </cell>
-          <cell r="L40">
-            <v>0</v>
-          </cell>
-          <cell r="M40">
-            <v>0</v>
-          </cell>
-          <cell r="N40">
-            <v>0</v>
-          </cell>
-          <cell r="O40">
-            <v>0</v>
-          </cell>
-          <cell r="P40">
-            <v>0</v>
-          </cell>
-          <cell r="Q40">
-            <v>0</v>
-          </cell>
-          <cell r="R40">
-            <v>0</v>
-          </cell>
-          <cell r="S40">
-            <v>0</v>
-          </cell>
-          <cell r="T40">
-            <v>0</v>
-          </cell>
-          <cell r="U40">
-            <v>0</v>
-          </cell>
-          <cell r="V40">
-            <v>0</v>
-          </cell>
-          <cell r="W40">
-            <v>0</v>
-          </cell>
-          <cell r="X40">
-            <v>0</v>
-          </cell>
-          <cell r="Y40">
-            <v>0</v>
-          </cell>
-          <cell r="Z40">
-            <v>0</v>
-          </cell>
-          <cell r="AA40">
-            <v>0</v>
-          </cell>
-          <cell r="AB40">
-            <v>0</v>
-          </cell>
-          <cell r="AC40">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>2011</v>
-          </cell>
-          <cell r="B41">
-            <v>1.00753</v>
-          </cell>
-          <cell r="C41">
-            <v>0</v>
-          </cell>
-          <cell r="D41">
-            <v>0</v>
-          </cell>
-          <cell r="E41">
-            <v>0</v>
-          </cell>
-          <cell r="F41">
-            <v>0</v>
-          </cell>
-          <cell r="G41">
-            <v>0</v>
-          </cell>
-          <cell r="H41">
-            <v>0</v>
-          </cell>
-          <cell r="I41">
-            <v>0</v>
-          </cell>
-          <cell r="J41">
-            <v>0</v>
-          </cell>
-          <cell r="K41">
-            <v>0</v>
-          </cell>
-          <cell r="L41">
-            <v>0</v>
-          </cell>
-          <cell r="M41">
-            <v>0</v>
-          </cell>
-          <cell r="N41">
-            <v>0</v>
-          </cell>
-          <cell r="O41">
-            <v>0</v>
-          </cell>
-          <cell r="P41">
-            <v>0</v>
-          </cell>
-          <cell r="Q41">
-            <v>0</v>
-          </cell>
-          <cell r="R41">
-            <v>0</v>
-          </cell>
-          <cell r="S41">
-            <v>0</v>
-          </cell>
-          <cell r="T41">
-            <v>0</v>
-          </cell>
-          <cell r="U41">
-            <v>0</v>
-          </cell>
-          <cell r="V41">
-            <v>0</v>
-          </cell>
-          <cell r="W41">
-            <v>0</v>
-          </cell>
-          <cell r="X41">
-            <v>0</v>
-          </cell>
-          <cell r="Y41">
-            <v>0</v>
-          </cell>
-          <cell r="Z41">
-            <v>0</v>
-          </cell>
-          <cell r="AA41">
-            <v>0</v>
-          </cell>
-          <cell r="AB41">
-            <v>0</v>
-          </cell>
-          <cell r="AC41">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>2012</v>
-          </cell>
-          <cell r="B42">
-            <v>1.02</v>
-          </cell>
-          <cell r="C42">
-            <v>0</v>
-          </cell>
-          <cell r="D42">
-            <v>0</v>
-          </cell>
-          <cell r="E42">
-            <v>0</v>
-          </cell>
-          <cell r="F42">
-            <v>0</v>
-          </cell>
-          <cell r="G42">
-            <v>0</v>
-          </cell>
-          <cell r="H42">
-            <v>0</v>
-          </cell>
-          <cell r="I42">
-            <v>0</v>
-          </cell>
-          <cell r="J42">
-            <v>0</v>
-          </cell>
-          <cell r="K42">
-            <v>0</v>
-          </cell>
-          <cell r="L42">
-            <v>0</v>
-          </cell>
-          <cell r="M42">
-            <v>0</v>
-          </cell>
-          <cell r="N42">
-            <v>0</v>
-          </cell>
-          <cell r="O42">
-            <v>0</v>
-          </cell>
-          <cell r="P42">
-            <v>0</v>
-          </cell>
-          <cell r="Q42">
-            <v>0</v>
-          </cell>
-          <cell r="R42">
-            <v>0</v>
-          </cell>
-          <cell r="S42">
-            <v>0</v>
-          </cell>
-          <cell r="T42">
-            <v>0</v>
-          </cell>
-          <cell r="U42">
-            <v>0</v>
-          </cell>
-          <cell r="V42">
-            <v>0</v>
-          </cell>
-          <cell r="W42">
-            <v>0</v>
-          </cell>
-          <cell r="X42">
-            <v>0</v>
-          </cell>
-          <cell r="Y42">
-            <v>0</v>
-          </cell>
-          <cell r="Z42">
-            <v>0</v>
-          </cell>
-          <cell r="AA42">
-            <v>0</v>
-          </cell>
-          <cell r="AB42">
-            <v>0</v>
-          </cell>
-          <cell r="AC42">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>2013</v>
-          </cell>
-          <cell r="B43">
-            <v>1.02</v>
-          </cell>
-          <cell r="C43">
-            <v>0</v>
-          </cell>
-          <cell r="D43">
-            <v>0</v>
-          </cell>
-          <cell r="E43">
-            <v>0</v>
-          </cell>
-          <cell r="F43">
-            <v>0</v>
-          </cell>
-          <cell r="G43">
-            <v>0</v>
-          </cell>
-          <cell r="H43">
-            <v>0</v>
-          </cell>
-          <cell r="I43">
-            <v>0</v>
-          </cell>
-          <cell r="J43">
-            <v>0</v>
-          </cell>
-          <cell r="K43">
-            <v>0</v>
-          </cell>
-          <cell r="L43">
-            <v>0</v>
-          </cell>
-          <cell r="M43">
-            <v>0</v>
-          </cell>
-          <cell r="N43">
-            <v>0</v>
-          </cell>
-          <cell r="O43">
-            <v>0</v>
-          </cell>
-          <cell r="P43">
-            <v>0</v>
-          </cell>
-          <cell r="Q43">
-            <v>0</v>
-          </cell>
-          <cell r="R43">
-            <v>0</v>
-          </cell>
-          <cell r="S43">
-            <v>0</v>
-          </cell>
-          <cell r="T43">
-            <v>0</v>
-          </cell>
-          <cell r="U43">
-            <v>0</v>
-          </cell>
-          <cell r="V43">
-            <v>0</v>
-          </cell>
-          <cell r="W43">
-            <v>0</v>
-          </cell>
-          <cell r="X43">
-            <v>0</v>
-          </cell>
-          <cell r="Y43">
-            <v>0</v>
-          </cell>
-          <cell r="Z43">
-            <v>0</v>
-          </cell>
-          <cell r="AA43">
-            <v>0</v>
-          </cell>
-          <cell r="AB43">
-            <v>0</v>
-          </cell>
-          <cell r="AC43">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>2014</v>
-          </cell>
-          <cell r="B44">
-            <v>1.00454</v>
-          </cell>
-          <cell r="C44">
-            <v>0</v>
-          </cell>
-          <cell r="D44">
-            <v>0</v>
-          </cell>
-          <cell r="E44">
-            <v>0</v>
-          </cell>
-          <cell r="F44">
-            <v>0</v>
-          </cell>
-          <cell r="G44">
-            <v>0</v>
-          </cell>
-          <cell r="H44">
-            <v>0</v>
-          </cell>
-          <cell r="I44">
-            <v>0</v>
-          </cell>
-          <cell r="J44">
-            <v>0</v>
-          </cell>
-          <cell r="K44">
-            <v>0</v>
-          </cell>
-          <cell r="L44">
-            <v>0</v>
-          </cell>
-          <cell r="M44">
-            <v>0</v>
-          </cell>
-          <cell r="N44">
-            <v>0</v>
-          </cell>
-          <cell r="O44">
-            <v>0</v>
-          </cell>
-          <cell r="P44">
-            <v>0</v>
-          </cell>
-          <cell r="Q44">
-            <v>0</v>
-          </cell>
-          <cell r="R44">
-            <v>0</v>
-          </cell>
-          <cell r="S44">
-            <v>0</v>
-          </cell>
-          <cell r="T44">
-            <v>0</v>
-          </cell>
-          <cell r="U44">
-            <v>0</v>
-          </cell>
-          <cell r="V44">
-            <v>0</v>
-          </cell>
-          <cell r="W44">
-            <v>0</v>
-          </cell>
-          <cell r="X44">
-            <v>0</v>
-          </cell>
-          <cell r="Y44">
-            <v>0</v>
-          </cell>
-          <cell r="Z44">
-            <v>0</v>
-          </cell>
-          <cell r="AA44">
-            <v>0</v>
-          </cell>
-          <cell r="AB44">
-            <v>0</v>
-          </cell>
-          <cell r="AC44">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>2015</v>
-          </cell>
-          <cell r="B45">
-            <v>1.0199800000000001</v>
-          </cell>
-          <cell r="C45">
-            <v>100000</v>
-          </cell>
-          <cell r="D45">
-            <v>0</v>
-          </cell>
-          <cell r="E45">
-            <v>0</v>
-          </cell>
-          <cell r="F45">
-            <v>0</v>
-          </cell>
-          <cell r="G45">
-            <v>0</v>
-          </cell>
-          <cell r="H45">
-            <v>0</v>
-          </cell>
-          <cell r="I45">
-            <v>0</v>
-          </cell>
-          <cell r="J45">
-            <v>0</v>
-          </cell>
-          <cell r="K45">
-            <v>0</v>
-          </cell>
-          <cell r="L45">
-            <v>0</v>
-          </cell>
-          <cell r="M45">
-            <v>0</v>
-          </cell>
-          <cell r="N45">
-            <v>0</v>
-          </cell>
-          <cell r="O45">
-            <v>0</v>
-          </cell>
-          <cell r="P45">
-            <v>0</v>
-          </cell>
-          <cell r="Q45">
-            <v>0</v>
-          </cell>
-          <cell r="R45">
-            <v>0</v>
-          </cell>
-          <cell r="S45">
-            <v>0</v>
-          </cell>
-          <cell r="T45">
-            <v>0</v>
-          </cell>
-          <cell r="U45">
-            <v>0</v>
-          </cell>
-          <cell r="V45">
-            <v>0</v>
-          </cell>
-          <cell r="W45">
-            <v>0</v>
-          </cell>
-          <cell r="X45">
-            <v>0</v>
-          </cell>
-          <cell r="Y45">
-            <v>0</v>
-          </cell>
-          <cell r="Z45">
-            <v>0</v>
-          </cell>
-          <cell r="AA45">
-            <v>0</v>
-          </cell>
-          <cell r="AB45">
-            <v>0</v>
-          </cell>
-          <cell r="AC45">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>2016</v>
-          </cell>
-          <cell r="B46">
-            <v>1.01525</v>
-          </cell>
-          <cell r="C46">
-            <v>101525</v>
-          </cell>
-          <cell r="D46">
-            <v>0</v>
-          </cell>
-          <cell r="E46">
-            <v>0</v>
-          </cell>
-          <cell r="F46">
-            <v>0</v>
-          </cell>
-          <cell r="G46">
-            <v>0</v>
-          </cell>
-          <cell r="H46">
-            <v>0</v>
-          </cell>
-          <cell r="I46">
-            <v>0</v>
-          </cell>
-          <cell r="J46">
-            <v>0</v>
-          </cell>
-          <cell r="K46">
-            <v>0</v>
-          </cell>
-          <cell r="L46">
-            <v>0</v>
-          </cell>
-          <cell r="M46">
-            <v>0</v>
-          </cell>
-          <cell r="N46">
-            <v>0</v>
-          </cell>
-          <cell r="O46">
-            <v>0</v>
-          </cell>
-          <cell r="P46">
-            <v>0</v>
-          </cell>
-          <cell r="Q46">
-            <v>0</v>
-          </cell>
-          <cell r="R46">
-            <v>0</v>
-          </cell>
-          <cell r="S46">
-            <v>0</v>
-          </cell>
-          <cell r="T46">
-            <v>0</v>
-          </cell>
-          <cell r="U46">
-            <v>0</v>
-          </cell>
-          <cell r="V46">
-            <v>0</v>
-          </cell>
-          <cell r="W46">
-            <v>0</v>
-          </cell>
-          <cell r="X46">
-            <v>0</v>
-          </cell>
-          <cell r="Y46">
-            <v>0</v>
-          </cell>
-          <cell r="Z46">
-            <v>0</v>
-          </cell>
-          <cell r="AA46">
-            <v>0</v>
-          </cell>
-          <cell r="AB46">
-            <v>0</v>
-          </cell>
-          <cell r="AC46">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>2017</v>
-          </cell>
-          <cell r="B47">
-            <v>1.02</v>
-          </cell>
-          <cell r="C47">
-            <v>103555</v>
-          </cell>
-          <cell r="D47">
-            <v>0</v>
-          </cell>
-          <cell r="E47">
-            <v>0</v>
-          </cell>
-          <cell r="F47">
-            <v>0</v>
-          </cell>
-          <cell r="G47">
-            <v>0</v>
-          </cell>
-          <cell r="H47">
-            <v>0</v>
-          </cell>
-          <cell r="I47">
-            <v>0</v>
-          </cell>
-          <cell r="J47">
-            <v>0</v>
-          </cell>
-          <cell r="K47">
-            <v>0</v>
-          </cell>
-          <cell r="L47">
-            <v>0</v>
-          </cell>
-          <cell r="M47">
-            <v>0</v>
-          </cell>
-          <cell r="N47">
-            <v>0</v>
-          </cell>
-          <cell r="O47">
-            <v>0</v>
-          </cell>
-          <cell r="P47">
-            <v>0</v>
-          </cell>
-          <cell r="Q47">
-            <v>0</v>
-          </cell>
-          <cell r="R47">
-            <v>0</v>
-          </cell>
-          <cell r="S47">
-            <v>0</v>
-          </cell>
-          <cell r="T47">
-            <v>0</v>
-          </cell>
-          <cell r="U47">
-            <v>0</v>
-          </cell>
-          <cell r="V47">
-            <v>0</v>
-          </cell>
-          <cell r="W47">
-            <v>0</v>
-          </cell>
-          <cell r="X47">
-            <v>0</v>
-          </cell>
-          <cell r="Y47">
-            <v>0</v>
-          </cell>
-          <cell r="Z47">
-            <v>0</v>
-          </cell>
-          <cell r="AA47">
-            <v>0</v>
-          </cell>
-          <cell r="AB47">
-            <v>0</v>
-          </cell>
-          <cell r="AC47">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>2018</v>
-          </cell>
-          <cell r="C48">
-            <v>0</v>
-          </cell>
-          <cell r="D48">
-            <v>0</v>
-          </cell>
-          <cell r="E48">
-            <v>0</v>
-          </cell>
-          <cell r="F48">
-            <v>0</v>
-          </cell>
-          <cell r="G48">
-            <v>0</v>
-          </cell>
-          <cell r="H48">
-            <v>0</v>
-          </cell>
-          <cell r="I48">
-            <v>0</v>
-          </cell>
-          <cell r="J48">
-            <v>0</v>
-          </cell>
-          <cell r="K48">
-            <v>0</v>
-          </cell>
-          <cell r="L48">
-            <v>0</v>
-          </cell>
-          <cell r="M48">
-            <v>0</v>
-          </cell>
-          <cell r="N48">
-            <v>0</v>
-          </cell>
-          <cell r="O48">
-            <v>0</v>
-          </cell>
-          <cell r="P48">
-            <v>0</v>
-          </cell>
-          <cell r="Q48">
-            <v>0</v>
-          </cell>
-          <cell r="R48">
-            <v>0</v>
-          </cell>
-          <cell r="S48">
-            <v>0</v>
-          </cell>
-          <cell r="T48">
-            <v>0</v>
-          </cell>
-          <cell r="U48">
-            <v>0</v>
-          </cell>
-          <cell r="V48">
-            <v>0</v>
-          </cell>
-          <cell r="W48">
-            <v>0</v>
-          </cell>
-          <cell r="X48">
-            <v>0</v>
-          </cell>
-          <cell r="Y48">
-            <v>0</v>
-          </cell>
-          <cell r="Z48">
-            <v>0</v>
-          </cell>
-          <cell r="AA48">
-            <v>0</v>
-          </cell>
-          <cell r="AB48">
-            <v>0</v>
-          </cell>
-          <cell r="AC48">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>2019</v>
-          </cell>
-          <cell r="C49">
-            <v>0</v>
-          </cell>
-          <cell r="D49">
-            <v>0</v>
-          </cell>
-          <cell r="E49">
-            <v>0</v>
-          </cell>
-          <cell r="F49">
-            <v>0</v>
-          </cell>
-          <cell r="G49">
-            <v>0</v>
-          </cell>
-          <cell r="H49">
-            <v>0</v>
-          </cell>
-          <cell r="I49">
-            <v>0</v>
-          </cell>
-          <cell r="J49">
-            <v>0</v>
-          </cell>
-          <cell r="K49">
-            <v>0</v>
-          </cell>
-          <cell r="L49">
-            <v>0</v>
-          </cell>
-          <cell r="M49">
-            <v>0</v>
-          </cell>
-          <cell r="N49">
-            <v>0</v>
-          </cell>
-          <cell r="O49">
-            <v>0</v>
-          </cell>
-          <cell r="P49">
-            <v>0</v>
-          </cell>
-          <cell r="Q49">
-            <v>0</v>
-          </cell>
-          <cell r="R49">
-            <v>0</v>
-          </cell>
-          <cell r="S49">
-            <v>0</v>
-          </cell>
-          <cell r="T49">
-            <v>0</v>
-          </cell>
-          <cell r="U49">
-            <v>0</v>
-          </cell>
-          <cell r="V49">
-            <v>0</v>
-          </cell>
-          <cell r="W49">
-            <v>0</v>
-          </cell>
-          <cell r="X49">
-            <v>0</v>
-          </cell>
-          <cell r="Y49">
-            <v>0</v>
-          </cell>
-          <cell r="Z49">
-            <v>0</v>
-          </cell>
-          <cell r="AA49">
-            <v>0</v>
-          </cell>
-          <cell r="AB49">
-            <v>0</v>
-          </cell>
-          <cell r="AC49">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>2020</v>
-          </cell>
-          <cell r="C50">
-            <v>0</v>
-          </cell>
-          <cell r="D50">
-            <v>0</v>
-          </cell>
-          <cell r="E50">
-            <v>0</v>
-          </cell>
-          <cell r="F50">
-            <v>0</v>
-          </cell>
-          <cell r="G50">
-            <v>0</v>
-          </cell>
-          <cell r="H50">
-            <v>0</v>
-          </cell>
-          <cell r="I50">
-            <v>0</v>
-          </cell>
-          <cell r="J50">
-            <v>0</v>
-          </cell>
-          <cell r="K50">
-            <v>0</v>
-          </cell>
-          <cell r="L50">
-            <v>0</v>
-          </cell>
-          <cell r="M50">
-            <v>0</v>
-          </cell>
-          <cell r="N50">
-            <v>0</v>
-          </cell>
-          <cell r="O50">
-            <v>0</v>
-          </cell>
-          <cell r="P50">
-            <v>0</v>
-          </cell>
-          <cell r="Q50">
-            <v>0</v>
-          </cell>
-          <cell r="R50">
-            <v>0</v>
-          </cell>
-          <cell r="S50">
-            <v>0</v>
-          </cell>
-          <cell r="T50">
-            <v>0</v>
-          </cell>
-          <cell r="U50">
-            <v>0</v>
-          </cell>
-          <cell r="V50">
-            <v>0</v>
-          </cell>
-          <cell r="W50">
-            <v>0</v>
-          </cell>
-          <cell r="X50">
-            <v>0</v>
-          </cell>
-          <cell r="Y50">
-            <v>0</v>
-          </cell>
-          <cell r="Z50">
-            <v>0</v>
-          </cell>
-          <cell r="AA50">
-            <v>0</v>
-          </cell>
-          <cell r="AB50">
-            <v>0</v>
-          </cell>
-          <cell r="AC50">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5013,23 +1005,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5065,23 +1040,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5257,19 +1215,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25E4FE7-D2C0-A546-ADC3-68DB8B903891}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5318,7 +1274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -5329,10 +1285,10 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="23" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="23" width="5.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
@@ -8390,7 +4346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -8400,7 +4356,7 @@
       <selection activeCell="A4" sqref="A4:A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2" spans="1:14">
       <c r="A2" s="18"/>
@@ -9447,7 +5403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -9457,7 +5413,7 @@
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2" spans="1:10">
       <c r="A2" s="42" t="s">
@@ -10122,7 +6078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
@@ -10130,22 +6086,22 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="22"/>
-    <col min="3" max="11" width="6.42578125" style="22" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" style="23" customWidth="1"/>
-    <col min="13" max="14" width="6.42578125" style="22" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" style="23" customWidth="1"/>
-    <col min="16" max="23" width="6.42578125" style="22" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="14.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="22"/>
+    <col min="3" max="11" width="6.453125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="6.453125" style="23" customWidth="1"/>
+    <col min="13" max="14" width="6.453125" style="22" customWidth="1"/>
+    <col min="15" max="15" width="6.453125" style="23" customWidth="1"/>
+    <col min="16" max="23" width="6.453125" style="22" customWidth="1"/>
+    <col min="24" max="16384" width="9.1796875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="32" customFormat="1" ht="14.1">
+    <row r="1" spans="1:23" s="32" customFormat="1" ht="14">
       <c r="A1" s="67" t="s">
         <v>5</v>
       </c>
@@ -18703,33 +14659,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="6.26953125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="22"/>
-    <col min="3" max="3" width="6.28515625" style="23" customWidth="1"/>
-    <col min="4" max="11" width="6.28515625" style="22" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" style="59" customWidth="1"/>
-    <col min="13" max="14" width="6.28515625" style="22" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="59" customWidth="1"/>
-    <col min="16" max="19" width="6.28515625" style="22" customWidth="1"/>
-    <col min="20" max="20" width="6.28515625" style="69"/>
-    <col min="21" max="23" width="6.28515625" style="22" customWidth="1"/>
-    <col min="24" max="16384" width="6.28515625" style="22"/>
+    <col min="1" max="1" width="14.1796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.26953125" style="22"/>
+    <col min="3" max="3" width="6.26953125" style="23" customWidth="1"/>
+    <col min="4" max="11" width="6.26953125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="6.26953125" style="59" customWidth="1"/>
+    <col min="13" max="14" width="6.26953125" style="22" customWidth="1"/>
+    <col min="15" max="15" width="13.1796875" style="59" customWidth="1"/>
+    <col min="16" max="19" width="6.26953125" style="22" customWidth="1"/>
+    <col min="20" max="20" width="6.26953125" style="69"/>
+    <col min="21" max="23" width="6.26953125" style="22" customWidth="1"/>
+    <col min="24" max="16384" width="6.26953125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="32.1" customHeight="1">
+    <row r="1" spans="1:23" ht="32.15" customHeight="1">
       <c r="A1" s="67" t="s">
         <v>7</v>
       </c>
@@ -27287,7 +23241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -27297,10 +23251,10 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="22"/>
+    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -28533,21 +24487,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="39" customFormat="1">
@@ -29291,21 +25245,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="10.140625" style="22" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="14.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="10.1796875" style="22" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -30518,7 +26472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -30528,10 +26482,10 @@
       <selection activeCell="A2" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="4" width="15.1796875" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -31235,718 +27189,718 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="222" width="9.140625" style="27"/>
-    <col min="223" max="223" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="3.42578125" style="27" customWidth="1"/>
-    <col min="228" max="228" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="9.140625" style="27"/>
-    <col min="230" max="230" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="231" max="232" width="9.140625" style="27"/>
-    <col min="233" max="233" width="8.85546875" style="27" customWidth="1"/>
-    <col min="234" max="478" width="9.140625" style="27"/>
-    <col min="479" max="479" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="480" max="480" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="481" max="481" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="482" max="482" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="483" max="483" width="3.42578125" style="27" customWidth="1"/>
-    <col min="484" max="484" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="485" max="485" width="9.140625" style="27"/>
-    <col min="486" max="486" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="487" max="488" width="9.140625" style="27"/>
-    <col min="489" max="489" width="8.85546875" style="27" customWidth="1"/>
-    <col min="490" max="734" width="9.140625" style="27"/>
-    <col min="735" max="735" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="736" max="736" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="737" max="737" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="738" max="738" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="739" max="739" width="3.42578125" style="27" customWidth="1"/>
-    <col min="740" max="740" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="741" max="741" width="9.140625" style="27"/>
-    <col min="742" max="742" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="743" max="744" width="9.140625" style="27"/>
-    <col min="745" max="745" width="8.85546875" style="27" customWidth="1"/>
-    <col min="746" max="990" width="9.140625" style="27"/>
-    <col min="991" max="991" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="992" max="992" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="993" max="993" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="994" max="994" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="995" max="995" width="3.42578125" style="27" customWidth="1"/>
-    <col min="996" max="996" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="997" max="997" width="9.140625" style="27"/>
-    <col min="998" max="998" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="999" max="1000" width="9.140625" style="27"/>
-    <col min="1001" max="1001" width="8.85546875" style="27" customWidth="1"/>
-    <col min="1002" max="1246" width="9.140625" style="27"/>
-    <col min="1247" max="1247" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1248" max="1248" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1249" max="1249" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1250" max="1250" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="1251" max="1251" width="3.42578125" style="27" customWidth="1"/>
-    <col min="1252" max="1252" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="1253" max="1253" width="9.140625" style="27"/>
-    <col min="1254" max="1254" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="1255" max="1256" width="9.140625" style="27"/>
-    <col min="1257" max="1257" width="8.85546875" style="27" customWidth="1"/>
-    <col min="1258" max="1502" width="9.140625" style="27"/>
-    <col min="1503" max="1503" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1504" max="1504" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1505" max="1505" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1506" max="1506" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="1507" max="1507" width="3.42578125" style="27" customWidth="1"/>
-    <col min="1508" max="1508" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="1509" max="1509" width="9.140625" style="27"/>
-    <col min="1510" max="1510" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="1511" max="1512" width="9.140625" style="27"/>
-    <col min="1513" max="1513" width="8.85546875" style="27" customWidth="1"/>
-    <col min="1514" max="1758" width="9.140625" style="27"/>
-    <col min="1759" max="1759" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1760" max="1760" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1761" max="1761" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1762" max="1762" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="1763" max="1763" width="3.42578125" style="27" customWidth="1"/>
-    <col min="1764" max="1764" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="1765" max="1765" width="9.140625" style="27"/>
-    <col min="1766" max="1766" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="1767" max="1768" width="9.140625" style="27"/>
-    <col min="1769" max="1769" width="8.85546875" style="27" customWidth="1"/>
-    <col min="1770" max="2014" width="9.140625" style="27"/>
-    <col min="2015" max="2015" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2016" max="2016" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2017" max="2017" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2018" max="2018" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="2019" max="2019" width="3.42578125" style="27" customWidth="1"/>
-    <col min="2020" max="2020" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="2021" max="2021" width="9.140625" style="27"/>
-    <col min="2022" max="2022" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="2023" max="2024" width="9.140625" style="27"/>
-    <col min="2025" max="2025" width="8.85546875" style="27" customWidth="1"/>
-    <col min="2026" max="2270" width="9.140625" style="27"/>
-    <col min="2271" max="2271" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2272" max="2272" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2273" max="2273" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2274" max="2274" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="2275" max="2275" width="3.42578125" style="27" customWidth="1"/>
-    <col min="2276" max="2276" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="2277" max="2277" width="9.140625" style="27"/>
-    <col min="2278" max="2278" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="2279" max="2280" width="9.140625" style="27"/>
-    <col min="2281" max="2281" width="8.85546875" style="27" customWidth="1"/>
-    <col min="2282" max="2526" width="9.140625" style="27"/>
-    <col min="2527" max="2527" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2528" max="2528" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2529" max="2529" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2530" max="2530" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="2531" max="2531" width="3.42578125" style="27" customWidth="1"/>
-    <col min="2532" max="2532" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="2533" max="2533" width="9.140625" style="27"/>
-    <col min="2534" max="2534" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="2535" max="2536" width="9.140625" style="27"/>
-    <col min="2537" max="2537" width="8.85546875" style="27" customWidth="1"/>
-    <col min="2538" max="2782" width="9.140625" style="27"/>
-    <col min="2783" max="2783" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2784" max="2784" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2785" max="2785" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2786" max="2786" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="2787" max="2787" width="3.42578125" style="27" customWidth="1"/>
-    <col min="2788" max="2788" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="2789" max="2789" width="9.140625" style="27"/>
-    <col min="2790" max="2790" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="2791" max="2792" width="9.140625" style="27"/>
-    <col min="2793" max="2793" width="8.85546875" style="27" customWidth="1"/>
-    <col min="2794" max="3038" width="9.140625" style="27"/>
-    <col min="3039" max="3039" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3040" max="3040" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3041" max="3041" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3042" max="3042" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="3043" max="3043" width="3.42578125" style="27" customWidth="1"/>
-    <col min="3044" max="3044" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="3045" max="3045" width="9.140625" style="27"/>
-    <col min="3046" max="3046" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="3047" max="3048" width="9.140625" style="27"/>
-    <col min="3049" max="3049" width="8.85546875" style="27" customWidth="1"/>
-    <col min="3050" max="3294" width="9.140625" style="27"/>
-    <col min="3295" max="3295" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3296" max="3296" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3297" max="3297" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3298" max="3298" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="3299" max="3299" width="3.42578125" style="27" customWidth="1"/>
-    <col min="3300" max="3300" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="3301" max="3301" width="9.140625" style="27"/>
-    <col min="3302" max="3302" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="3303" max="3304" width="9.140625" style="27"/>
-    <col min="3305" max="3305" width="8.85546875" style="27" customWidth="1"/>
-    <col min="3306" max="3550" width="9.140625" style="27"/>
-    <col min="3551" max="3551" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3552" max="3552" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3553" max="3553" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3554" max="3554" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="3555" max="3555" width="3.42578125" style="27" customWidth="1"/>
-    <col min="3556" max="3556" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="3557" max="3557" width="9.140625" style="27"/>
-    <col min="3558" max="3558" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="3559" max="3560" width="9.140625" style="27"/>
-    <col min="3561" max="3561" width="8.85546875" style="27" customWidth="1"/>
-    <col min="3562" max="3806" width="9.140625" style="27"/>
-    <col min="3807" max="3807" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3808" max="3808" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3809" max="3809" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3810" max="3810" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="3811" max="3811" width="3.42578125" style="27" customWidth="1"/>
-    <col min="3812" max="3812" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="3813" max="3813" width="9.140625" style="27"/>
-    <col min="3814" max="3814" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="3815" max="3816" width="9.140625" style="27"/>
-    <col min="3817" max="3817" width="8.85546875" style="27" customWidth="1"/>
-    <col min="3818" max="4062" width="9.140625" style="27"/>
-    <col min="4063" max="4063" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4064" max="4064" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4065" max="4065" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4066" max="4066" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="4067" max="4067" width="3.42578125" style="27" customWidth="1"/>
-    <col min="4068" max="4068" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="4069" max="4069" width="9.140625" style="27"/>
-    <col min="4070" max="4070" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="4071" max="4072" width="9.140625" style="27"/>
-    <col min="4073" max="4073" width="8.85546875" style="27" customWidth="1"/>
-    <col min="4074" max="4318" width="9.140625" style="27"/>
-    <col min="4319" max="4319" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4320" max="4320" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4321" max="4321" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4322" max="4322" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="4323" max="4323" width="3.42578125" style="27" customWidth="1"/>
-    <col min="4324" max="4324" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="4325" max="4325" width="9.140625" style="27"/>
-    <col min="4326" max="4326" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="4327" max="4328" width="9.140625" style="27"/>
-    <col min="4329" max="4329" width="8.85546875" style="27" customWidth="1"/>
-    <col min="4330" max="4574" width="9.140625" style="27"/>
-    <col min="4575" max="4575" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4576" max="4576" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4577" max="4577" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4578" max="4578" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="4579" max="4579" width="3.42578125" style="27" customWidth="1"/>
-    <col min="4580" max="4580" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="4581" max="4581" width="9.140625" style="27"/>
-    <col min="4582" max="4582" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="4583" max="4584" width="9.140625" style="27"/>
-    <col min="4585" max="4585" width="8.85546875" style="27" customWidth="1"/>
-    <col min="4586" max="4830" width="9.140625" style="27"/>
-    <col min="4831" max="4831" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4832" max="4832" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4833" max="4833" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4834" max="4834" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="4835" max="4835" width="3.42578125" style="27" customWidth="1"/>
-    <col min="4836" max="4836" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="4837" max="4837" width="9.140625" style="27"/>
-    <col min="4838" max="4838" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="4839" max="4840" width="9.140625" style="27"/>
-    <col min="4841" max="4841" width="8.85546875" style="27" customWidth="1"/>
-    <col min="4842" max="5086" width="9.140625" style="27"/>
-    <col min="5087" max="5087" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5088" max="5088" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5089" max="5089" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5090" max="5090" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5091" max="5091" width="3.42578125" style="27" customWidth="1"/>
-    <col min="5092" max="5092" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5093" max="5093" width="9.140625" style="27"/>
-    <col min="5094" max="5094" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5095" max="5096" width="9.140625" style="27"/>
-    <col min="5097" max="5097" width="8.85546875" style="27" customWidth="1"/>
-    <col min="5098" max="5342" width="9.140625" style="27"/>
-    <col min="5343" max="5343" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5344" max="5344" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5345" max="5345" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5346" max="5346" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5347" max="5347" width="3.42578125" style="27" customWidth="1"/>
-    <col min="5348" max="5348" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5349" max="5349" width="9.140625" style="27"/>
-    <col min="5350" max="5350" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5351" max="5352" width="9.140625" style="27"/>
-    <col min="5353" max="5353" width="8.85546875" style="27" customWidth="1"/>
-    <col min="5354" max="5598" width="9.140625" style="27"/>
-    <col min="5599" max="5599" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5600" max="5600" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5601" max="5601" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5602" max="5602" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5603" max="5603" width="3.42578125" style="27" customWidth="1"/>
-    <col min="5604" max="5604" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5605" max="5605" width="9.140625" style="27"/>
-    <col min="5606" max="5606" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5607" max="5608" width="9.140625" style="27"/>
-    <col min="5609" max="5609" width="8.85546875" style="27" customWidth="1"/>
-    <col min="5610" max="5854" width="9.140625" style="27"/>
-    <col min="5855" max="5855" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5856" max="5856" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5857" max="5857" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5858" max="5858" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5859" max="5859" width="3.42578125" style="27" customWidth="1"/>
-    <col min="5860" max="5860" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5861" max="5861" width="9.140625" style="27"/>
-    <col min="5862" max="5862" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5863" max="5864" width="9.140625" style="27"/>
-    <col min="5865" max="5865" width="8.85546875" style="27" customWidth="1"/>
-    <col min="5866" max="6110" width="9.140625" style="27"/>
-    <col min="6111" max="6111" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6112" max="6112" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6113" max="6113" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6114" max="6114" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="6115" max="6115" width="3.42578125" style="27" customWidth="1"/>
-    <col min="6116" max="6116" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="6117" max="6117" width="9.140625" style="27"/>
-    <col min="6118" max="6118" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="6119" max="6120" width="9.140625" style="27"/>
-    <col min="6121" max="6121" width="8.85546875" style="27" customWidth="1"/>
-    <col min="6122" max="6366" width="9.140625" style="27"/>
-    <col min="6367" max="6367" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6368" max="6368" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6369" max="6369" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6370" max="6370" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="6371" max="6371" width="3.42578125" style="27" customWidth="1"/>
-    <col min="6372" max="6372" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="6373" max="6373" width="9.140625" style="27"/>
-    <col min="6374" max="6374" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="6375" max="6376" width="9.140625" style="27"/>
-    <col min="6377" max="6377" width="8.85546875" style="27" customWidth="1"/>
-    <col min="6378" max="6622" width="9.140625" style="27"/>
-    <col min="6623" max="6623" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6624" max="6624" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6625" max="6625" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6626" max="6626" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="6627" max="6627" width="3.42578125" style="27" customWidth="1"/>
-    <col min="6628" max="6628" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="6629" max="6629" width="9.140625" style="27"/>
-    <col min="6630" max="6630" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="6631" max="6632" width="9.140625" style="27"/>
-    <col min="6633" max="6633" width="8.85546875" style="27" customWidth="1"/>
-    <col min="6634" max="6878" width="9.140625" style="27"/>
-    <col min="6879" max="6879" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6880" max="6880" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6881" max="6881" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6882" max="6882" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="6883" max="6883" width="3.42578125" style="27" customWidth="1"/>
-    <col min="6884" max="6884" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="6885" max="6885" width="9.140625" style="27"/>
-    <col min="6886" max="6886" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="6887" max="6888" width="9.140625" style="27"/>
-    <col min="6889" max="6889" width="8.85546875" style="27" customWidth="1"/>
-    <col min="6890" max="7134" width="9.140625" style="27"/>
-    <col min="7135" max="7135" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7136" max="7136" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7137" max="7137" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7138" max="7138" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="7139" max="7139" width="3.42578125" style="27" customWidth="1"/>
-    <col min="7140" max="7140" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="7141" max="7141" width="9.140625" style="27"/>
-    <col min="7142" max="7142" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="7143" max="7144" width="9.140625" style="27"/>
-    <col min="7145" max="7145" width="8.85546875" style="27" customWidth="1"/>
-    <col min="7146" max="7390" width="9.140625" style="27"/>
-    <col min="7391" max="7391" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7392" max="7392" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7393" max="7393" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7394" max="7394" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="7395" max="7395" width="3.42578125" style="27" customWidth="1"/>
-    <col min="7396" max="7396" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="7397" max="7397" width="9.140625" style="27"/>
-    <col min="7398" max="7398" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="7399" max="7400" width="9.140625" style="27"/>
-    <col min="7401" max="7401" width="8.85546875" style="27" customWidth="1"/>
-    <col min="7402" max="7646" width="9.140625" style="27"/>
-    <col min="7647" max="7647" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7648" max="7648" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7649" max="7649" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7650" max="7650" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="7651" max="7651" width="3.42578125" style="27" customWidth="1"/>
-    <col min="7652" max="7652" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="7653" max="7653" width="9.140625" style="27"/>
-    <col min="7654" max="7654" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="7655" max="7656" width="9.140625" style="27"/>
-    <col min="7657" max="7657" width="8.85546875" style="27" customWidth="1"/>
-    <col min="7658" max="7902" width="9.140625" style="27"/>
-    <col min="7903" max="7903" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7904" max="7904" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7905" max="7905" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7906" max="7906" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="7907" max="7907" width="3.42578125" style="27" customWidth="1"/>
-    <col min="7908" max="7908" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="7909" max="7909" width="9.140625" style="27"/>
-    <col min="7910" max="7910" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="7911" max="7912" width="9.140625" style="27"/>
-    <col min="7913" max="7913" width="8.85546875" style="27" customWidth="1"/>
-    <col min="7914" max="8158" width="9.140625" style="27"/>
-    <col min="8159" max="8159" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8160" max="8160" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8161" max="8161" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8162" max="8162" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="8163" max="8163" width="3.42578125" style="27" customWidth="1"/>
-    <col min="8164" max="8164" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="8165" max="8165" width="9.140625" style="27"/>
-    <col min="8166" max="8166" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="8167" max="8168" width="9.140625" style="27"/>
-    <col min="8169" max="8169" width="8.85546875" style="27" customWidth="1"/>
-    <col min="8170" max="8414" width="9.140625" style="27"/>
-    <col min="8415" max="8415" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8416" max="8416" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8417" max="8417" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8418" max="8418" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="8419" max="8419" width="3.42578125" style="27" customWidth="1"/>
-    <col min="8420" max="8420" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="8421" max="8421" width="9.140625" style="27"/>
-    <col min="8422" max="8422" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="8423" max="8424" width="9.140625" style="27"/>
-    <col min="8425" max="8425" width="8.85546875" style="27" customWidth="1"/>
-    <col min="8426" max="8670" width="9.140625" style="27"/>
-    <col min="8671" max="8671" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8672" max="8672" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8673" max="8673" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8674" max="8674" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="8675" max="8675" width="3.42578125" style="27" customWidth="1"/>
-    <col min="8676" max="8676" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="8677" max="8677" width="9.140625" style="27"/>
-    <col min="8678" max="8678" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="8679" max="8680" width="9.140625" style="27"/>
-    <col min="8681" max="8681" width="8.85546875" style="27" customWidth="1"/>
-    <col min="8682" max="8926" width="9.140625" style="27"/>
-    <col min="8927" max="8927" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8928" max="8928" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8929" max="8929" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8930" max="8930" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="8931" max="8931" width="3.42578125" style="27" customWidth="1"/>
-    <col min="8932" max="8932" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="8933" max="8933" width="9.140625" style="27"/>
-    <col min="8934" max="8934" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="8935" max="8936" width="9.140625" style="27"/>
-    <col min="8937" max="8937" width="8.85546875" style="27" customWidth="1"/>
-    <col min="8938" max="9182" width="9.140625" style="27"/>
-    <col min="9183" max="9183" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9184" max="9184" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9185" max="9185" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9186" max="9186" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="9187" max="9187" width="3.42578125" style="27" customWidth="1"/>
-    <col min="9188" max="9188" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="9189" max="9189" width="9.140625" style="27"/>
-    <col min="9190" max="9190" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="9191" max="9192" width="9.140625" style="27"/>
-    <col min="9193" max="9193" width="8.85546875" style="27" customWidth="1"/>
-    <col min="9194" max="9438" width="9.140625" style="27"/>
-    <col min="9439" max="9439" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9440" max="9440" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9441" max="9441" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9442" max="9442" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="9443" max="9443" width="3.42578125" style="27" customWidth="1"/>
-    <col min="9444" max="9444" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="9445" max="9445" width="9.140625" style="27"/>
-    <col min="9446" max="9446" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="9447" max="9448" width="9.140625" style="27"/>
-    <col min="9449" max="9449" width="8.85546875" style="27" customWidth="1"/>
-    <col min="9450" max="9694" width="9.140625" style="27"/>
-    <col min="9695" max="9695" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9696" max="9696" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9697" max="9697" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9698" max="9698" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="9699" max="9699" width="3.42578125" style="27" customWidth="1"/>
-    <col min="9700" max="9700" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="9701" max="9701" width="9.140625" style="27"/>
-    <col min="9702" max="9702" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="9703" max="9704" width="9.140625" style="27"/>
-    <col min="9705" max="9705" width="8.85546875" style="27" customWidth="1"/>
-    <col min="9706" max="9950" width="9.140625" style="27"/>
-    <col min="9951" max="9951" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9952" max="9952" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9953" max="9953" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9954" max="9954" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="9955" max="9955" width="3.42578125" style="27" customWidth="1"/>
-    <col min="9956" max="9956" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="9957" max="9957" width="9.140625" style="27"/>
-    <col min="9958" max="9958" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="9959" max="9960" width="9.140625" style="27"/>
-    <col min="9961" max="9961" width="8.85546875" style="27" customWidth="1"/>
-    <col min="9962" max="10206" width="9.140625" style="27"/>
-    <col min="10207" max="10207" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10208" max="10208" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10209" max="10209" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10210" max="10210" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="10211" max="10211" width="3.42578125" style="27" customWidth="1"/>
-    <col min="10212" max="10212" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="10213" max="10213" width="9.140625" style="27"/>
-    <col min="10214" max="10214" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="10215" max="10216" width="9.140625" style="27"/>
-    <col min="10217" max="10217" width="8.85546875" style="27" customWidth="1"/>
-    <col min="10218" max="10462" width="9.140625" style="27"/>
-    <col min="10463" max="10463" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10464" max="10464" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10465" max="10465" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10466" max="10466" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="10467" max="10467" width="3.42578125" style="27" customWidth="1"/>
-    <col min="10468" max="10468" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="10469" max="10469" width="9.140625" style="27"/>
-    <col min="10470" max="10470" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="10471" max="10472" width="9.140625" style="27"/>
-    <col min="10473" max="10473" width="8.85546875" style="27" customWidth="1"/>
-    <col min="10474" max="10718" width="9.140625" style="27"/>
-    <col min="10719" max="10719" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10720" max="10720" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10721" max="10721" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10722" max="10722" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="10723" max="10723" width="3.42578125" style="27" customWidth="1"/>
-    <col min="10724" max="10724" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="10725" max="10725" width="9.140625" style="27"/>
-    <col min="10726" max="10726" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="10727" max="10728" width="9.140625" style="27"/>
-    <col min="10729" max="10729" width="8.85546875" style="27" customWidth="1"/>
-    <col min="10730" max="10974" width="9.140625" style="27"/>
-    <col min="10975" max="10975" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10976" max="10976" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10977" max="10977" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10978" max="10978" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="10979" max="10979" width="3.42578125" style="27" customWidth="1"/>
-    <col min="10980" max="10980" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="10981" max="10981" width="9.140625" style="27"/>
-    <col min="10982" max="10982" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="10983" max="10984" width="9.140625" style="27"/>
-    <col min="10985" max="10985" width="8.85546875" style="27" customWidth="1"/>
-    <col min="10986" max="11230" width="9.140625" style="27"/>
-    <col min="11231" max="11231" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11232" max="11232" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11233" max="11233" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11234" max="11234" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="11235" max="11235" width="3.42578125" style="27" customWidth="1"/>
-    <col min="11236" max="11236" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="11237" max="11237" width="9.140625" style="27"/>
-    <col min="11238" max="11238" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="11239" max="11240" width="9.140625" style="27"/>
-    <col min="11241" max="11241" width="8.85546875" style="27" customWidth="1"/>
-    <col min="11242" max="11486" width="9.140625" style="27"/>
-    <col min="11487" max="11487" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11488" max="11488" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11489" max="11489" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11490" max="11490" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="11491" max="11491" width="3.42578125" style="27" customWidth="1"/>
-    <col min="11492" max="11492" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="11493" max="11493" width="9.140625" style="27"/>
-    <col min="11494" max="11494" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="11495" max="11496" width="9.140625" style="27"/>
-    <col min="11497" max="11497" width="8.85546875" style="27" customWidth="1"/>
-    <col min="11498" max="11742" width="9.140625" style="27"/>
-    <col min="11743" max="11743" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11744" max="11744" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11745" max="11745" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11746" max="11746" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="11747" max="11747" width="3.42578125" style="27" customWidth="1"/>
-    <col min="11748" max="11748" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="11749" max="11749" width="9.140625" style="27"/>
-    <col min="11750" max="11750" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="11751" max="11752" width="9.140625" style="27"/>
-    <col min="11753" max="11753" width="8.85546875" style="27" customWidth="1"/>
-    <col min="11754" max="11998" width="9.140625" style="27"/>
-    <col min="11999" max="11999" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12000" max="12000" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12001" max="12001" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12002" max="12002" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="12003" max="12003" width="3.42578125" style="27" customWidth="1"/>
-    <col min="12004" max="12004" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="12005" max="12005" width="9.140625" style="27"/>
-    <col min="12006" max="12006" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="12007" max="12008" width="9.140625" style="27"/>
-    <col min="12009" max="12009" width="8.85546875" style="27" customWidth="1"/>
-    <col min="12010" max="12254" width="9.140625" style="27"/>
-    <col min="12255" max="12255" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12256" max="12256" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12257" max="12257" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12258" max="12258" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="12259" max="12259" width="3.42578125" style="27" customWidth="1"/>
-    <col min="12260" max="12260" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="12261" max="12261" width="9.140625" style="27"/>
-    <col min="12262" max="12262" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="12263" max="12264" width="9.140625" style="27"/>
-    <col min="12265" max="12265" width="8.85546875" style="27" customWidth="1"/>
-    <col min="12266" max="12510" width="9.140625" style="27"/>
-    <col min="12511" max="12511" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12512" max="12512" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12513" max="12513" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12514" max="12514" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="12515" max="12515" width="3.42578125" style="27" customWidth="1"/>
-    <col min="12516" max="12516" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="12517" max="12517" width="9.140625" style="27"/>
-    <col min="12518" max="12518" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="12519" max="12520" width="9.140625" style="27"/>
-    <col min="12521" max="12521" width="8.85546875" style="27" customWidth="1"/>
-    <col min="12522" max="12766" width="9.140625" style="27"/>
-    <col min="12767" max="12767" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12768" max="12768" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12769" max="12769" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12770" max="12770" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="12771" max="12771" width="3.42578125" style="27" customWidth="1"/>
-    <col min="12772" max="12772" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="12773" max="12773" width="9.140625" style="27"/>
-    <col min="12774" max="12774" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="12775" max="12776" width="9.140625" style="27"/>
-    <col min="12777" max="12777" width="8.85546875" style="27" customWidth="1"/>
-    <col min="12778" max="13022" width="9.140625" style="27"/>
-    <col min="13023" max="13023" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13024" max="13024" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13025" max="13025" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13026" max="13026" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="13027" max="13027" width="3.42578125" style="27" customWidth="1"/>
-    <col min="13028" max="13028" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="13029" max="13029" width="9.140625" style="27"/>
-    <col min="13030" max="13030" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="13031" max="13032" width="9.140625" style="27"/>
-    <col min="13033" max="13033" width="8.85546875" style="27" customWidth="1"/>
-    <col min="13034" max="13278" width="9.140625" style="27"/>
-    <col min="13279" max="13279" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13280" max="13280" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13281" max="13281" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13282" max="13282" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="13283" max="13283" width="3.42578125" style="27" customWidth="1"/>
-    <col min="13284" max="13284" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="13285" max="13285" width="9.140625" style="27"/>
-    <col min="13286" max="13286" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="13287" max="13288" width="9.140625" style="27"/>
-    <col min="13289" max="13289" width="8.85546875" style="27" customWidth="1"/>
-    <col min="13290" max="13534" width="9.140625" style="27"/>
-    <col min="13535" max="13535" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13536" max="13536" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13537" max="13537" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13538" max="13538" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="13539" max="13539" width="3.42578125" style="27" customWidth="1"/>
-    <col min="13540" max="13540" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="13541" max="13541" width="9.140625" style="27"/>
-    <col min="13542" max="13542" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="13543" max="13544" width="9.140625" style="27"/>
-    <col min="13545" max="13545" width="8.85546875" style="27" customWidth="1"/>
-    <col min="13546" max="13790" width="9.140625" style="27"/>
-    <col min="13791" max="13791" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13792" max="13792" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13793" max="13793" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13794" max="13794" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="13795" max="13795" width="3.42578125" style="27" customWidth="1"/>
-    <col min="13796" max="13796" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="13797" max="13797" width="9.140625" style="27"/>
-    <col min="13798" max="13798" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="13799" max="13800" width="9.140625" style="27"/>
-    <col min="13801" max="13801" width="8.85546875" style="27" customWidth="1"/>
-    <col min="13802" max="14046" width="9.140625" style="27"/>
-    <col min="14047" max="14047" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14048" max="14048" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14049" max="14049" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14050" max="14050" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="14051" max="14051" width="3.42578125" style="27" customWidth="1"/>
-    <col min="14052" max="14052" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="14053" max="14053" width="9.140625" style="27"/>
-    <col min="14054" max="14054" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="14055" max="14056" width="9.140625" style="27"/>
-    <col min="14057" max="14057" width="8.85546875" style="27" customWidth="1"/>
-    <col min="14058" max="14302" width="9.140625" style="27"/>
-    <col min="14303" max="14303" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14304" max="14304" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14305" max="14305" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14306" max="14306" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="14307" max="14307" width="3.42578125" style="27" customWidth="1"/>
-    <col min="14308" max="14308" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="14309" max="14309" width="9.140625" style="27"/>
-    <col min="14310" max="14310" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="14311" max="14312" width="9.140625" style="27"/>
-    <col min="14313" max="14313" width="8.85546875" style="27" customWidth="1"/>
-    <col min="14314" max="14558" width="9.140625" style="27"/>
-    <col min="14559" max="14559" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14560" max="14560" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14561" max="14561" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14562" max="14562" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="14563" max="14563" width="3.42578125" style="27" customWidth="1"/>
-    <col min="14564" max="14564" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="14565" max="14565" width="9.140625" style="27"/>
-    <col min="14566" max="14566" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="14567" max="14568" width="9.140625" style="27"/>
-    <col min="14569" max="14569" width="8.85546875" style="27" customWidth="1"/>
-    <col min="14570" max="14814" width="9.140625" style="27"/>
-    <col min="14815" max="14815" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14816" max="14816" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14817" max="14817" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14818" max="14818" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="14819" max="14819" width="3.42578125" style="27" customWidth="1"/>
-    <col min="14820" max="14820" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="14821" max="14821" width="9.140625" style="27"/>
-    <col min="14822" max="14822" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="14823" max="14824" width="9.140625" style="27"/>
-    <col min="14825" max="14825" width="8.85546875" style="27" customWidth="1"/>
-    <col min="14826" max="15070" width="9.140625" style="27"/>
-    <col min="15071" max="15071" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15072" max="15072" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15073" max="15073" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15074" max="15074" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="15075" max="15075" width="3.42578125" style="27" customWidth="1"/>
-    <col min="15076" max="15076" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="15077" max="15077" width="9.140625" style="27"/>
-    <col min="15078" max="15078" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="15079" max="15080" width="9.140625" style="27"/>
-    <col min="15081" max="15081" width="8.85546875" style="27" customWidth="1"/>
-    <col min="15082" max="15326" width="9.140625" style="27"/>
-    <col min="15327" max="15327" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15328" max="15328" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15329" max="15329" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15330" max="15330" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="15331" max="15331" width="3.42578125" style="27" customWidth="1"/>
-    <col min="15332" max="15332" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="15333" max="15333" width="9.140625" style="27"/>
-    <col min="15334" max="15334" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="15335" max="15336" width="9.140625" style="27"/>
-    <col min="15337" max="15337" width="8.85546875" style="27" customWidth="1"/>
-    <col min="15338" max="15582" width="9.140625" style="27"/>
-    <col min="15583" max="15583" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15584" max="15584" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15585" max="15585" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15586" max="15586" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="15587" max="15587" width="3.42578125" style="27" customWidth="1"/>
-    <col min="15588" max="15588" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="15589" max="15589" width="9.140625" style="27"/>
-    <col min="15590" max="15590" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="15591" max="15592" width="9.140625" style="27"/>
-    <col min="15593" max="15593" width="8.85546875" style="27" customWidth="1"/>
-    <col min="15594" max="15838" width="9.140625" style="27"/>
-    <col min="15839" max="15839" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15840" max="15840" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15841" max="15841" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15842" max="15842" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="15843" max="15843" width="3.42578125" style="27" customWidth="1"/>
-    <col min="15844" max="15844" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="15845" max="15845" width="9.140625" style="27"/>
-    <col min="15846" max="15846" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="15847" max="15848" width="9.140625" style="27"/>
-    <col min="15849" max="15849" width="8.85546875" style="27" customWidth="1"/>
-    <col min="15850" max="16094" width="9.140625" style="27"/>
-    <col min="16095" max="16095" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="16096" max="16096" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="16097" max="16097" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="16098" max="16098" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="16099" max="16099" width="3.42578125" style="27" customWidth="1"/>
-    <col min="16100" max="16100" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="16101" max="16101" width="9.140625" style="27"/>
-    <col min="16102" max="16102" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="16103" max="16104" width="9.140625" style="27"/>
-    <col min="16105" max="16105" width="8.85546875" style="27" customWidth="1"/>
-    <col min="16106" max="16369" width="9.140625" style="27"/>
-    <col min="16370" max="16384" width="9.140625" style="27" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="222" width="9.1796875" style="27"/>
+    <col min="223" max="223" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="3.453125" style="27" customWidth="1"/>
+    <col min="228" max="228" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="9.1796875" style="27"/>
+    <col min="230" max="230" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="231" max="232" width="9.1796875" style="27"/>
+    <col min="233" max="233" width="8.81640625" style="27" customWidth="1"/>
+    <col min="234" max="478" width="9.1796875" style="27"/>
+    <col min="479" max="479" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="480" max="480" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="481" max="481" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="482" max="482" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="483" max="483" width="3.453125" style="27" customWidth="1"/>
+    <col min="484" max="484" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="485" max="485" width="9.1796875" style="27"/>
+    <col min="486" max="486" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="487" max="488" width="9.1796875" style="27"/>
+    <col min="489" max="489" width="8.81640625" style="27" customWidth="1"/>
+    <col min="490" max="734" width="9.1796875" style="27"/>
+    <col min="735" max="735" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="736" max="736" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="737" max="737" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="738" max="738" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="739" max="739" width="3.453125" style="27" customWidth="1"/>
+    <col min="740" max="740" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="741" max="741" width="9.1796875" style="27"/>
+    <col min="742" max="742" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="743" max="744" width="9.1796875" style="27"/>
+    <col min="745" max="745" width="8.81640625" style="27" customWidth="1"/>
+    <col min="746" max="990" width="9.1796875" style="27"/>
+    <col min="991" max="991" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="992" max="992" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="993" max="993" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="994" max="994" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="995" max="995" width="3.453125" style="27" customWidth="1"/>
+    <col min="996" max="996" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="997" max="997" width="9.1796875" style="27"/>
+    <col min="998" max="998" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="999" max="1000" width="9.1796875" style="27"/>
+    <col min="1001" max="1001" width="8.81640625" style="27" customWidth="1"/>
+    <col min="1002" max="1246" width="9.1796875" style="27"/>
+    <col min="1247" max="1247" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1248" max="1248" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1249" max="1249" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1250" max="1250" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1251" max="1251" width="3.453125" style="27" customWidth="1"/>
+    <col min="1252" max="1252" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1253" max="1253" width="9.1796875" style="27"/>
+    <col min="1254" max="1254" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1255" max="1256" width="9.1796875" style="27"/>
+    <col min="1257" max="1257" width="8.81640625" style="27" customWidth="1"/>
+    <col min="1258" max="1502" width="9.1796875" style="27"/>
+    <col min="1503" max="1503" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1504" max="1504" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1505" max="1505" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1506" max="1506" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1507" max="1507" width="3.453125" style="27" customWidth="1"/>
+    <col min="1508" max="1508" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1509" max="1509" width="9.1796875" style="27"/>
+    <col min="1510" max="1510" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1511" max="1512" width="9.1796875" style="27"/>
+    <col min="1513" max="1513" width="8.81640625" style="27" customWidth="1"/>
+    <col min="1514" max="1758" width="9.1796875" style="27"/>
+    <col min="1759" max="1759" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1760" max="1760" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1761" max="1761" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1762" max="1762" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1763" max="1763" width="3.453125" style="27" customWidth="1"/>
+    <col min="1764" max="1764" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1765" max="1765" width="9.1796875" style="27"/>
+    <col min="1766" max="1766" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1767" max="1768" width="9.1796875" style="27"/>
+    <col min="1769" max="1769" width="8.81640625" style="27" customWidth="1"/>
+    <col min="1770" max="2014" width="9.1796875" style="27"/>
+    <col min="2015" max="2015" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2016" max="2016" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2017" max="2017" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2018" max="2018" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2019" max="2019" width="3.453125" style="27" customWidth="1"/>
+    <col min="2020" max="2020" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2021" max="2021" width="9.1796875" style="27"/>
+    <col min="2022" max="2022" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2023" max="2024" width="9.1796875" style="27"/>
+    <col min="2025" max="2025" width="8.81640625" style="27" customWidth="1"/>
+    <col min="2026" max="2270" width="9.1796875" style="27"/>
+    <col min="2271" max="2271" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2272" max="2272" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2273" max="2273" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2274" max="2274" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2275" max="2275" width="3.453125" style="27" customWidth="1"/>
+    <col min="2276" max="2276" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2277" max="2277" width="9.1796875" style="27"/>
+    <col min="2278" max="2278" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2279" max="2280" width="9.1796875" style="27"/>
+    <col min="2281" max="2281" width="8.81640625" style="27" customWidth="1"/>
+    <col min="2282" max="2526" width="9.1796875" style="27"/>
+    <col min="2527" max="2527" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2528" max="2528" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2529" max="2529" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2530" max="2530" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2531" max="2531" width="3.453125" style="27" customWidth="1"/>
+    <col min="2532" max="2532" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2533" max="2533" width="9.1796875" style="27"/>
+    <col min="2534" max="2534" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2535" max="2536" width="9.1796875" style="27"/>
+    <col min="2537" max="2537" width="8.81640625" style="27" customWidth="1"/>
+    <col min="2538" max="2782" width="9.1796875" style="27"/>
+    <col min="2783" max="2783" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2784" max="2784" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2785" max="2785" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2786" max="2786" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2787" max="2787" width="3.453125" style="27" customWidth="1"/>
+    <col min="2788" max="2788" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2789" max="2789" width="9.1796875" style="27"/>
+    <col min="2790" max="2790" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2791" max="2792" width="9.1796875" style="27"/>
+    <col min="2793" max="2793" width="8.81640625" style="27" customWidth="1"/>
+    <col min="2794" max="3038" width="9.1796875" style="27"/>
+    <col min="3039" max="3039" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3040" max="3040" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3041" max="3041" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3042" max="3042" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3043" max="3043" width="3.453125" style="27" customWidth="1"/>
+    <col min="3044" max="3044" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3045" max="3045" width="9.1796875" style="27"/>
+    <col min="3046" max="3046" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3047" max="3048" width="9.1796875" style="27"/>
+    <col min="3049" max="3049" width="8.81640625" style="27" customWidth="1"/>
+    <col min="3050" max="3294" width="9.1796875" style="27"/>
+    <col min="3295" max="3295" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3296" max="3296" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3297" max="3297" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3298" max="3298" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3299" max="3299" width="3.453125" style="27" customWidth="1"/>
+    <col min="3300" max="3300" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3301" max="3301" width="9.1796875" style="27"/>
+    <col min="3302" max="3302" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3303" max="3304" width="9.1796875" style="27"/>
+    <col min="3305" max="3305" width="8.81640625" style="27" customWidth="1"/>
+    <col min="3306" max="3550" width="9.1796875" style="27"/>
+    <col min="3551" max="3551" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3552" max="3552" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3553" max="3553" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3554" max="3554" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3555" max="3555" width="3.453125" style="27" customWidth="1"/>
+    <col min="3556" max="3556" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3557" max="3557" width="9.1796875" style="27"/>
+    <col min="3558" max="3558" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3559" max="3560" width="9.1796875" style="27"/>
+    <col min="3561" max="3561" width="8.81640625" style="27" customWidth="1"/>
+    <col min="3562" max="3806" width="9.1796875" style="27"/>
+    <col min="3807" max="3807" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3808" max="3808" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3809" max="3809" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3810" max="3810" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3811" max="3811" width="3.453125" style="27" customWidth="1"/>
+    <col min="3812" max="3812" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3813" max="3813" width="9.1796875" style="27"/>
+    <col min="3814" max="3814" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3815" max="3816" width="9.1796875" style="27"/>
+    <col min="3817" max="3817" width="8.81640625" style="27" customWidth="1"/>
+    <col min="3818" max="4062" width="9.1796875" style="27"/>
+    <col min="4063" max="4063" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4064" max="4064" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4065" max="4065" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4066" max="4066" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4067" max="4067" width="3.453125" style="27" customWidth="1"/>
+    <col min="4068" max="4068" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4069" max="4069" width="9.1796875" style="27"/>
+    <col min="4070" max="4070" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4071" max="4072" width="9.1796875" style="27"/>
+    <col min="4073" max="4073" width="8.81640625" style="27" customWidth="1"/>
+    <col min="4074" max="4318" width="9.1796875" style="27"/>
+    <col min="4319" max="4319" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4320" max="4320" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4321" max="4321" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4322" max="4322" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4323" max="4323" width="3.453125" style="27" customWidth="1"/>
+    <col min="4324" max="4324" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4325" max="4325" width="9.1796875" style="27"/>
+    <col min="4326" max="4326" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4327" max="4328" width="9.1796875" style="27"/>
+    <col min="4329" max="4329" width="8.81640625" style="27" customWidth="1"/>
+    <col min="4330" max="4574" width="9.1796875" style="27"/>
+    <col min="4575" max="4575" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4576" max="4576" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4577" max="4577" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4578" max="4578" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4579" max="4579" width="3.453125" style="27" customWidth="1"/>
+    <col min="4580" max="4580" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4581" max="4581" width="9.1796875" style="27"/>
+    <col min="4582" max="4582" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4583" max="4584" width="9.1796875" style="27"/>
+    <col min="4585" max="4585" width="8.81640625" style="27" customWidth="1"/>
+    <col min="4586" max="4830" width="9.1796875" style="27"/>
+    <col min="4831" max="4831" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4832" max="4832" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4833" max="4833" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4834" max="4834" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4835" max="4835" width="3.453125" style="27" customWidth="1"/>
+    <col min="4836" max="4836" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4837" max="4837" width="9.1796875" style="27"/>
+    <col min="4838" max="4838" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4839" max="4840" width="9.1796875" style="27"/>
+    <col min="4841" max="4841" width="8.81640625" style="27" customWidth="1"/>
+    <col min="4842" max="5086" width="9.1796875" style="27"/>
+    <col min="5087" max="5087" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5088" max="5088" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5089" max="5089" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5090" max="5090" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5091" max="5091" width="3.453125" style="27" customWidth="1"/>
+    <col min="5092" max="5092" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5093" max="5093" width="9.1796875" style="27"/>
+    <col min="5094" max="5094" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5095" max="5096" width="9.1796875" style="27"/>
+    <col min="5097" max="5097" width="8.81640625" style="27" customWidth="1"/>
+    <col min="5098" max="5342" width="9.1796875" style="27"/>
+    <col min="5343" max="5343" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5344" max="5344" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5345" max="5345" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5346" max="5346" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5347" max="5347" width="3.453125" style="27" customWidth="1"/>
+    <col min="5348" max="5348" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5349" max="5349" width="9.1796875" style="27"/>
+    <col min="5350" max="5350" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5351" max="5352" width="9.1796875" style="27"/>
+    <col min="5353" max="5353" width="8.81640625" style="27" customWidth="1"/>
+    <col min="5354" max="5598" width="9.1796875" style="27"/>
+    <col min="5599" max="5599" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5600" max="5600" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5601" max="5601" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5602" max="5602" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5603" max="5603" width="3.453125" style="27" customWidth="1"/>
+    <col min="5604" max="5604" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5605" max="5605" width="9.1796875" style="27"/>
+    <col min="5606" max="5606" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5607" max="5608" width="9.1796875" style="27"/>
+    <col min="5609" max="5609" width="8.81640625" style="27" customWidth="1"/>
+    <col min="5610" max="5854" width="9.1796875" style="27"/>
+    <col min="5855" max="5855" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5856" max="5856" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5857" max="5857" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5858" max="5858" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5859" max="5859" width="3.453125" style="27" customWidth="1"/>
+    <col min="5860" max="5860" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5861" max="5861" width="9.1796875" style="27"/>
+    <col min="5862" max="5862" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5863" max="5864" width="9.1796875" style="27"/>
+    <col min="5865" max="5865" width="8.81640625" style="27" customWidth="1"/>
+    <col min="5866" max="6110" width="9.1796875" style="27"/>
+    <col min="6111" max="6111" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6112" max="6112" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6113" max="6113" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6114" max="6114" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6115" max="6115" width="3.453125" style="27" customWidth="1"/>
+    <col min="6116" max="6116" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6117" max="6117" width="9.1796875" style="27"/>
+    <col min="6118" max="6118" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6119" max="6120" width="9.1796875" style="27"/>
+    <col min="6121" max="6121" width="8.81640625" style="27" customWidth="1"/>
+    <col min="6122" max="6366" width="9.1796875" style="27"/>
+    <col min="6367" max="6367" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6368" max="6368" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6369" max="6369" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6370" max="6370" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6371" max="6371" width="3.453125" style="27" customWidth="1"/>
+    <col min="6372" max="6372" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6373" max="6373" width="9.1796875" style="27"/>
+    <col min="6374" max="6374" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6375" max="6376" width="9.1796875" style="27"/>
+    <col min="6377" max="6377" width="8.81640625" style="27" customWidth="1"/>
+    <col min="6378" max="6622" width="9.1796875" style="27"/>
+    <col min="6623" max="6623" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6624" max="6624" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6625" max="6625" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6626" max="6626" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6627" max="6627" width="3.453125" style="27" customWidth="1"/>
+    <col min="6628" max="6628" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6629" max="6629" width="9.1796875" style="27"/>
+    <col min="6630" max="6630" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6631" max="6632" width="9.1796875" style="27"/>
+    <col min="6633" max="6633" width="8.81640625" style="27" customWidth="1"/>
+    <col min="6634" max="6878" width="9.1796875" style="27"/>
+    <col min="6879" max="6879" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6880" max="6880" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6881" max="6881" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6882" max="6882" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6883" max="6883" width="3.453125" style="27" customWidth="1"/>
+    <col min="6884" max="6884" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6885" max="6885" width="9.1796875" style="27"/>
+    <col min="6886" max="6886" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6887" max="6888" width="9.1796875" style="27"/>
+    <col min="6889" max="6889" width="8.81640625" style="27" customWidth="1"/>
+    <col min="6890" max="7134" width="9.1796875" style="27"/>
+    <col min="7135" max="7135" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7136" max="7136" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7137" max="7137" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7138" max="7138" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7139" max="7139" width="3.453125" style="27" customWidth="1"/>
+    <col min="7140" max="7140" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7141" max="7141" width="9.1796875" style="27"/>
+    <col min="7142" max="7142" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7143" max="7144" width="9.1796875" style="27"/>
+    <col min="7145" max="7145" width="8.81640625" style="27" customWidth="1"/>
+    <col min="7146" max="7390" width="9.1796875" style="27"/>
+    <col min="7391" max="7391" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7392" max="7392" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7393" max="7393" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7394" max="7394" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7395" max="7395" width="3.453125" style="27" customWidth="1"/>
+    <col min="7396" max="7396" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7397" max="7397" width="9.1796875" style="27"/>
+    <col min="7398" max="7398" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7399" max="7400" width="9.1796875" style="27"/>
+    <col min="7401" max="7401" width="8.81640625" style="27" customWidth="1"/>
+    <col min="7402" max="7646" width="9.1796875" style="27"/>
+    <col min="7647" max="7647" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7648" max="7648" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7649" max="7649" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7650" max="7650" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7651" max="7651" width="3.453125" style="27" customWidth="1"/>
+    <col min="7652" max="7652" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7653" max="7653" width="9.1796875" style="27"/>
+    <col min="7654" max="7654" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7655" max="7656" width="9.1796875" style="27"/>
+    <col min="7657" max="7657" width="8.81640625" style="27" customWidth="1"/>
+    <col min="7658" max="7902" width="9.1796875" style="27"/>
+    <col min="7903" max="7903" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7904" max="7904" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7905" max="7905" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7906" max="7906" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7907" max="7907" width="3.453125" style="27" customWidth="1"/>
+    <col min="7908" max="7908" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7909" max="7909" width="9.1796875" style="27"/>
+    <col min="7910" max="7910" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7911" max="7912" width="9.1796875" style="27"/>
+    <col min="7913" max="7913" width="8.81640625" style="27" customWidth="1"/>
+    <col min="7914" max="8158" width="9.1796875" style="27"/>
+    <col min="8159" max="8159" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8160" max="8160" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8161" max="8161" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8162" max="8162" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8163" max="8163" width="3.453125" style="27" customWidth="1"/>
+    <col min="8164" max="8164" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8165" max="8165" width="9.1796875" style="27"/>
+    <col min="8166" max="8166" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8167" max="8168" width="9.1796875" style="27"/>
+    <col min="8169" max="8169" width="8.81640625" style="27" customWidth="1"/>
+    <col min="8170" max="8414" width="9.1796875" style="27"/>
+    <col min="8415" max="8415" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8416" max="8416" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8417" max="8417" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8418" max="8418" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8419" max="8419" width="3.453125" style="27" customWidth="1"/>
+    <col min="8420" max="8420" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8421" max="8421" width="9.1796875" style="27"/>
+    <col min="8422" max="8422" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8423" max="8424" width="9.1796875" style="27"/>
+    <col min="8425" max="8425" width="8.81640625" style="27" customWidth="1"/>
+    <col min="8426" max="8670" width="9.1796875" style="27"/>
+    <col min="8671" max="8671" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8672" max="8672" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8673" max="8673" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8674" max="8674" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8675" max="8675" width="3.453125" style="27" customWidth="1"/>
+    <col min="8676" max="8676" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8677" max="8677" width="9.1796875" style="27"/>
+    <col min="8678" max="8678" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8679" max="8680" width="9.1796875" style="27"/>
+    <col min="8681" max="8681" width="8.81640625" style="27" customWidth="1"/>
+    <col min="8682" max="8926" width="9.1796875" style="27"/>
+    <col min="8927" max="8927" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8928" max="8928" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8929" max="8929" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8930" max="8930" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8931" max="8931" width="3.453125" style="27" customWidth="1"/>
+    <col min="8932" max="8932" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8933" max="8933" width="9.1796875" style="27"/>
+    <col min="8934" max="8934" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8935" max="8936" width="9.1796875" style="27"/>
+    <col min="8937" max="8937" width="8.81640625" style="27" customWidth="1"/>
+    <col min="8938" max="9182" width="9.1796875" style="27"/>
+    <col min="9183" max="9183" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9184" max="9184" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9185" max="9185" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9186" max="9186" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9187" max="9187" width="3.453125" style="27" customWidth="1"/>
+    <col min="9188" max="9188" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9189" max="9189" width="9.1796875" style="27"/>
+    <col min="9190" max="9190" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9191" max="9192" width="9.1796875" style="27"/>
+    <col min="9193" max="9193" width="8.81640625" style="27" customWidth="1"/>
+    <col min="9194" max="9438" width="9.1796875" style="27"/>
+    <col min="9439" max="9439" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9440" max="9440" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9441" max="9441" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9442" max="9442" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9443" max="9443" width="3.453125" style="27" customWidth="1"/>
+    <col min="9444" max="9444" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9445" max="9445" width="9.1796875" style="27"/>
+    <col min="9446" max="9446" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9447" max="9448" width="9.1796875" style="27"/>
+    <col min="9449" max="9449" width="8.81640625" style="27" customWidth="1"/>
+    <col min="9450" max="9694" width="9.1796875" style="27"/>
+    <col min="9695" max="9695" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9696" max="9696" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9697" max="9697" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9698" max="9698" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9699" max="9699" width="3.453125" style="27" customWidth="1"/>
+    <col min="9700" max="9700" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9701" max="9701" width="9.1796875" style="27"/>
+    <col min="9702" max="9702" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9703" max="9704" width="9.1796875" style="27"/>
+    <col min="9705" max="9705" width="8.81640625" style="27" customWidth="1"/>
+    <col min="9706" max="9950" width="9.1796875" style="27"/>
+    <col min="9951" max="9951" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9952" max="9952" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9953" max="9953" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9954" max="9954" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9955" max="9955" width="3.453125" style="27" customWidth="1"/>
+    <col min="9956" max="9956" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9957" max="9957" width="9.1796875" style="27"/>
+    <col min="9958" max="9958" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9959" max="9960" width="9.1796875" style="27"/>
+    <col min="9961" max="9961" width="8.81640625" style="27" customWidth="1"/>
+    <col min="9962" max="10206" width="9.1796875" style="27"/>
+    <col min="10207" max="10207" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10208" max="10208" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10209" max="10209" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10210" max="10210" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10211" max="10211" width="3.453125" style="27" customWidth="1"/>
+    <col min="10212" max="10212" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10213" max="10213" width="9.1796875" style="27"/>
+    <col min="10214" max="10214" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10215" max="10216" width="9.1796875" style="27"/>
+    <col min="10217" max="10217" width="8.81640625" style="27" customWidth="1"/>
+    <col min="10218" max="10462" width="9.1796875" style="27"/>
+    <col min="10463" max="10463" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10464" max="10464" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10465" max="10465" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10466" max="10466" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10467" max="10467" width="3.453125" style="27" customWidth="1"/>
+    <col min="10468" max="10468" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10469" max="10469" width="9.1796875" style="27"/>
+    <col min="10470" max="10470" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10471" max="10472" width="9.1796875" style="27"/>
+    <col min="10473" max="10473" width="8.81640625" style="27" customWidth="1"/>
+    <col min="10474" max="10718" width="9.1796875" style="27"/>
+    <col min="10719" max="10719" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10720" max="10720" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10721" max="10721" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10722" max="10722" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10723" max="10723" width="3.453125" style="27" customWidth="1"/>
+    <col min="10724" max="10724" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10725" max="10725" width="9.1796875" style="27"/>
+    <col min="10726" max="10726" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10727" max="10728" width="9.1796875" style="27"/>
+    <col min="10729" max="10729" width="8.81640625" style="27" customWidth="1"/>
+    <col min="10730" max="10974" width="9.1796875" style="27"/>
+    <col min="10975" max="10975" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10976" max="10976" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10977" max="10977" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10978" max="10978" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10979" max="10979" width="3.453125" style="27" customWidth="1"/>
+    <col min="10980" max="10980" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10981" max="10981" width="9.1796875" style="27"/>
+    <col min="10982" max="10982" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10983" max="10984" width="9.1796875" style="27"/>
+    <col min="10985" max="10985" width="8.81640625" style="27" customWidth="1"/>
+    <col min="10986" max="11230" width="9.1796875" style="27"/>
+    <col min="11231" max="11231" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11232" max="11232" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11233" max="11233" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11234" max="11234" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11235" max="11235" width="3.453125" style="27" customWidth="1"/>
+    <col min="11236" max="11236" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11237" max="11237" width="9.1796875" style="27"/>
+    <col min="11238" max="11238" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11239" max="11240" width="9.1796875" style="27"/>
+    <col min="11241" max="11241" width="8.81640625" style="27" customWidth="1"/>
+    <col min="11242" max="11486" width="9.1796875" style="27"/>
+    <col min="11487" max="11487" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11488" max="11488" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11489" max="11489" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11490" max="11490" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11491" max="11491" width="3.453125" style="27" customWidth="1"/>
+    <col min="11492" max="11492" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11493" max="11493" width="9.1796875" style="27"/>
+    <col min="11494" max="11494" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11495" max="11496" width="9.1796875" style="27"/>
+    <col min="11497" max="11497" width="8.81640625" style="27" customWidth="1"/>
+    <col min="11498" max="11742" width="9.1796875" style="27"/>
+    <col min="11743" max="11743" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11744" max="11744" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11745" max="11745" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11746" max="11746" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11747" max="11747" width="3.453125" style="27" customWidth="1"/>
+    <col min="11748" max="11748" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11749" max="11749" width="9.1796875" style="27"/>
+    <col min="11750" max="11750" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11751" max="11752" width="9.1796875" style="27"/>
+    <col min="11753" max="11753" width="8.81640625" style="27" customWidth="1"/>
+    <col min="11754" max="11998" width="9.1796875" style="27"/>
+    <col min="11999" max="11999" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="12000" max="12000" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12001" max="12001" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12002" max="12002" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12003" max="12003" width="3.453125" style="27" customWidth="1"/>
+    <col min="12004" max="12004" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12005" max="12005" width="9.1796875" style="27"/>
+    <col min="12006" max="12006" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12007" max="12008" width="9.1796875" style="27"/>
+    <col min="12009" max="12009" width="8.81640625" style="27" customWidth="1"/>
+    <col min="12010" max="12254" width="9.1796875" style="27"/>
+    <col min="12255" max="12255" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="12256" max="12256" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12257" max="12257" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12258" max="12258" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12259" max="12259" width="3.453125" style="27" customWidth="1"/>
+    <col min="12260" max="12260" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12261" max="12261" width="9.1796875" style="27"/>
+    <col min="12262" max="12262" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12263" max="12264" width="9.1796875" style="27"/>
+    <col min="12265" max="12265" width="8.81640625" style="27" customWidth="1"/>
+    <col min="12266" max="12510" width="9.1796875" style="27"/>
+    <col min="12511" max="12511" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="12512" max="12512" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12513" max="12513" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12514" max="12514" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12515" max="12515" width="3.453125" style="27" customWidth="1"/>
+    <col min="12516" max="12516" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12517" max="12517" width="9.1796875" style="27"/>
+    <col min="12518" max="12518" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12519" max="12520" width="9.1796875" style="27"/>
+    <col min="12521" max="12521" width="8.81640625" style="27" customWidth="1"/>
+    <col min="12522" max="12766" width="9.1796875" style="27"/>
+    <col min="12767" max="12767" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="12768" max="12768" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12769" max="12769" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12770" max="12770" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12771" max="12771" width="3.453125" style="27" customWidth="1"/>
+    <col min="12772" max="12772" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12773" max="12773" width="9.1796875" style="27"/>
+    <col min="12774" max="12774" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12775" max="12776" width="9.1796875" style="27"/>
+    <col min="12777" max="12777" width="8.81640625" style="27" customWidth="1"/>
+    <col min="12778" max="13022" width="9.1796875" style="27"/>
+    <col min="13023" max="13023" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13024" max="13024" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13025" max="13025" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13026" max="13026" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13027" max="13027" width="3.453125" style="27" customWidth="1"/>
+    <col min="13028" max="13028" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13029" max="13029" width="9.1796875" style="27"/>
+    <col min="13030" max="13030" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13031" max="13032" width="9.1796875" style="27"/>
+    <col min="13033" max="13033" width="8.81640625" style="27" customWidth="1"/>
+    <col min="13034" max="13278" width="9.1796875" style="27"/>
+    <col min="13279" max="13279" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13280" max="13280" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13281" max="13281" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13282" max="13282" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13283" max="13283" width="3.453125" style="27" customWidth="1"/>
+    <col min="13284" max="13284" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13285" max="13285" width="9.1796875" style="27"/>
+    <col min="13286" max="13286" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13287" max="13288" width="9.1796875" style="27"/>
+    <col min="13289" max="13289" width="8.81640625" style="27" customWidth="1"/>
+    <col min="13290" max="13534" width="9.1796875" style="27"/>
+    <col min="13535" max="13535" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13536" max="13536" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13537" max="13537" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13538" max="13538" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13539" max="13539" width="3.453125" style="27" customWidth="1"/>
+    <col min="13540" max="13540" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13541" max="13541" width="9.1796875" style="27"/>
+    <col min="13542" max="13542" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13543" max="13544" width="9.1796875" style="27"/>
+    <col min="13545" max="13545" width="8.81640625" style="27" customWidth="1"/>
+    <col min="13546" max="13790" width="9.1796875" style="27"/>
+    <col min="13791" max="13791" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13792" max="13792" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13793" max="13793" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13794" max="13794" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13795" max="13795" width="3.453125" style="27" customWidth="1"/>
+    <col min="13796" max="13796" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13797" max="13797" width="9.1796875" style="27"/>
+    <col min="13798" max="13798" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13799" max="13800" width="9.1796875" style="27"/>
+    <col min="13801" max="13801" width="8.81640625" style="27" customWidth="1"/>
+    <col min="13802" max="14046" width="9.1796875" style="27"/>
+    <col min="14047" max="14047" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14048" max="14048" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14049" max="14049" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14050" max="14050" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14051" max="14051" width="3.453125" style="27" customWidth="1"/>
+    <col min="14052" max="14052" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14053" max="14053" width="9.1796875" style="27"/>
+    <col min="14054" max="14054" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14055" max="14056" width="9.1796875" style="27"/>
+    <col min="14057" max="14057" width="8.81640625" style="27" customWidth="1"/>
+    <col min="14058" max="14302" width="9.1796875" style="27"/>
+    <col min="14303" max="14303" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14304" max="14304" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14305" max="14305" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14306" max="14306" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14307" max="14307" width="3.453125" style="27" customWidth="1"/>
+    <col min="14308" max="14308" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14309" max="14309" width="9.1796875" style="27"/>
+    <col min="14310" max="14310" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14311" max="14312" width="9.1796875" style="27"/>
+    <col min="14313" max="14313" width="8.81640625" style="27" customWidth="1"/>
+    <col min="14314" max="14558" width="9.1796875" style="27"/>
+    <col min="14559" max="14559" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14560" max="14560" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14561" max="14561" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14562" max="14562" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14563" max="14563" width="3.453125" style="27" customWidth="1"/>
+    <col min="14564" max="14564" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14565" max="14565" width="9.1796875" style="27"/>
+    <col min="14566" max="14566" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14567" max="14568" width="9.1796875" style="27"/>
+    <col min="14569" max="14569" width="8.81640625" style="27" customWidth="1"/>
+    <col min="14570" max="14814" width="9.1796875" style="27"/>
+    <col min="14815" max="14815" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14816" max="14816" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14817" max="14817" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14818" max="14818" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14819" max="14819" width="3.453125" style="27" customWidth="1"/>
+    <col min="14820" max="14820" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14821" max="14821" width="9.1796875" style="27"/>
+    <col min="14822" max="14822" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14823" max="14824" width="9.1796875" style="27"/>
+    <col min="14825" max="14825" width="8.81640625" style="27" customWidth="1"/>
+    <col min="14826" max="15070" width="9.1796875" style="27"/>
+    <col min="15071" max="15071" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15072" max="15072" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15073" max="15073" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15074" max="15074" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15075" max="15075" width="3.453125" style="27" customWidth="1"/>
+    <col min="15076" max="15076" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15077" max="15077" width="9.1796875" style="27"/>
+    <col min="15078" max="15078" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15079" max="15080" width="9.1796875" style="27"/>
+    <col min="15081" max="15081" width="8.81640625" style="27" customWidth="1"/>
+    <col min="15082" max="15326" width="9.1796875" style="27"/>
+    <col min="15327" max="15327" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15328" max="15328" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15329" max="15329" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15330" max="15330" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15331" max="15331" width="3.453125" style="27" customWidth="1"/>
+    <col min="15332" max="15332" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15333" max="15333" width="9.1796875" style="27"/>
+    <col min="15334" max="15334" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15335" max="15336" width="9.1796875" style="27"/>
+    <col min="15337" max="15337" width="8.81640625" style="27" customWidth="1"/>
+    <col min="15338" max="15582" width="9.1796875" style="27"/>
+    <col min="15583" max="15583" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15584" max="15584" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15585" max="15585" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15586" max="15586" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15587" max="15587" width="3.453125" style="27" customWidth="1"/>
+    <col min="15588" max="15588" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15589" max="15589" width="9.1796875" style="27"/>
+    <col min="15590" max="15590" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15591" max="15592" width="9.1796875" style="27"/>
+    <col min="15593" max="15593" width="8.81640625" style="27" customWidth="1"/>
+    <col min="15594" max="15838" width="9.1796875" style="27"/>
+    <col min="15839" max="15839" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15840" max="15840" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15841" max="15841" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15842" max="15842" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15843" max="15843" width="3.453125" style="27" customWidth="1"/>
+    <col min="15844" max="15844" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15845" max="15845" width="9.1796875" style="27"/>
+    <col min="15846" max="15846" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15847" max="15848" width="9.1796875" style="27"/>
+    <col min="15849" max="15849" width="8.81640625" style="27" customWidth="1"/>
+    <col min="15850" max="16094" width="9.1796875" style="27"/>
+    <col min="16095" max="16095" width="18.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="16096" max="16096" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="16097" max="16097" width="11.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="16098" max="16098" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="16099" max="16099" width="3.453125" style="27" customWidth="1"/>
+    <col min="16100" max="16100" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="16101" max="16101" width="9.1796875" style="27"/>
+    <col min="16102" max="16102" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="16103" max="16104" width="9.1796875" style="27"/>
+    <col min="16105" max="16105" width="8.81640625" style="27" customWidth="1"/>
+    <col min="16106" max="16369" width="9.1796875" style="27"/>
+    <col min="16370" max="16384" width="9.1796875" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15">
@@ -32574,7 +28528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -32584,17 +28538,17 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="5" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="5" width="16.7265625" customWidth="1"/>
+    <col min="9" max="9" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" customWidth="1"/>
+    <col min="14" max="14" width="8.26953125" customWidth="1"/>
+    <col min="16" max="16" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="15.95">
+    <row r="2" spans="1:17" ht="15.5">
       <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
@@ -32625,7 +28579,7 @@
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
     </row>
-    <row r="3" spans="1:17" s="22" customFormat="1" ht="14.45" customHeight="1">
+    <row r="3" spans="1:17" s="22" customFormat="1" ht="14.5" customHeight="1">
       <c r="A3" s="47">
         <v>2019</v>
       </c>
@@ -34532,13 +30486,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F3C6BE0-5695-470E-A59E-7BDCB6BB12DD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F3C6BE0-5695-470E-A59E-7BDCB6BB12DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F2DE4A6-F91E-4F6B-8A6E-62E71A187416}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F2DE4A6-F91E-4F6B-8A6E-62E71A187416}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD3C18A0-7822-4254-9424-9F0FB7ED5054}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD3C18A0-7822-4254-9424-9F0FB7ED5054}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="928b0ed4-59de-4866-ab39-c285c276cabe"/>
+    <ds:schemaRef ds:uri="10427840-475b-49c9-8fdb-b62ed56f40ff"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/BppTrend/2020_Trend_Factors_Calculator.xlsx
+++ b/data/BppTrend/2020_Trend_Factors_Calculator.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="5" firstSheet="2" tabRatio="870" windowHeight="14420" windowWidth="25600" xWindow="0" yWindow="460"/>
+    <workbookView tabRatio="870" windowHeight="14420" windowWidth="25600" xWindow="0" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="Trends Settings " r:id="rId1" sheetId="21"/>
@@ -1218,7 +1218,9 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
@@ -25151,7 +25153,7 @@
   </sheetPr>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
@@ -30145,21 +30147,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010011DC045639EA034996508D08AC8F77A4" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7dbf7a819558f3aedc25624ce3a3d643">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="928b0ed4-59de-4866-ab39-c285c276cabe" xmlns:ns3="10427840-475b-49c9-8fdb-b62ed56f40ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="999177114d252612893f88a2cdbefd84" ns2:_="" ns3:_="">
     <xsd:import namespace="928b0ed4-59de-4866-ab39-c285c276cabe"/>
@@ -30376,24 +30363,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F2DE4A6-F91E-4F6B-8A6E-62E71A187416}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F3C6BE0-5695-470E-A59E-7BDCB6BB12DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD3C18A0-7822-4254-9424-9F0FB7ED5054}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30410,4 +30395,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F3C6BE0-5695-470E-A59E-7BDCB6BB12DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F2DE4A6-F91E-4F6B-8A6E-62E71A187416}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>